--- a/app_output/parking_lot_spaces.xlsx
+++ b/app_output/parking_lot_spaces.xlsx
@@ -452,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F564"/>
+  <dimension ref="A1:F563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F1" sqref="F1"/>
@@ -3289,276 +3289,274 @@
       <c r="F157"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" t="s">
-        <v>16</v>
+      <c r="A158">
+        <v>1</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158">
-        <v>158</v>
-      </c>
-      <c r="F158" t="s">
-        <v>5</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F158"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B160">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B161">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>161</v>
+      </c>
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
         <v>9</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>16</v>
       </c>
-      <c r="C162" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162">
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163">
         <v>162</v>
       </c>
-      <c r="F162"/>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
         <v>4</v>
       </c>
-      <c r="B163">
-        <v>6</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
         <v>21</v>
       </c>
-      <c r="D163" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163">
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164">
         <v>163</v>
-      </c>
-      <c r="F163"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164">
-        <v>164</v>
       </c>
       <c r="F164"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>164</v>
+      </c>
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
         <v>24</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>1</v>
       </c>
-      <c r="C165" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165">
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166">
         <v>165</v>
-      </c>
-      <c r="F165"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>10</v>
-      </c>
-      <c r="B166">
-        <v>19</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166">
-        <v>166</v>
       </c>
       <c r="F166"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>19</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <v>166</v>
+      </c>
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
         <v>5</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>2</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>14</v>
       </c>
-      <c r="D167" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167">
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168">
         <v>168</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168">
-        <v>15</v>
-      </c>
-      <c r="C168" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168">
-        <v>169</v>
-      </c>
-      <c r="F168"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
       </c>
       <c r="E169">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F169"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F170"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B171">
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F171"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F172"/>
     </row>
@@ -3567,79 +3565,79 @@
         <v>11</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F173"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F174"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B175">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F175"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F176"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B177">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3648,85 +3646,85 @@
         <v>7</v>
       </c>
       <c r="E177">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F177"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178">
         <v>13</v>
       </c>
-      <c r="B178">
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>178</v>
+      </c>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179">
         <v>18</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>8</v>
       </c>
-      <c r="D178" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178">
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179">
         <v>179</v>
       </c>
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
         <v>5</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <v>11</v>
       </c>
-      <c r="C179" t="s">
-        <v>10</v>
-      </c>
-      <c r="D179" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179">
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180">
         <v>180</v>
       </c>
-      <c r="F179"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" t="s">
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
         <v>18</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <v>18</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>17</v>
       </c>
-      <c r="D180" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180">
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181">
         <v>181</v>
       </c>
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>10</v>
-      </c>
-      <c r="B181">
-        <v>4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181">
-        <v>182</v>
-      </c>
       <c r="F181"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" t="s">
-        <v>18</v>
+      <c r="A182">
+        <v>10</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -3738,223 +3736,223 @@
         <v>7</v>
       </c>
       <c r="E182">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F182"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B183">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F183"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184">
+        <v>184</v>
+      </c>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
         <v>23</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <v>19</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>21</v>
       </c>
-      <c r="D184" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184">
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185">
         <v>185</v>
       </c>
-      <c r="F184"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
         <v>9</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <v>12</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>19</v>
       </c>
-      <c r="D185" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185">
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186">
         <v>186</v>
-      </c>
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" t="s">
-        <v>16</v>
-      </c>
-      <c r="B186">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186">
-        <v>187</v>
       </c>
       <c r="F186"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F187"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B188">
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F188"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B189">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F189"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B190">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F190"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>191</v>
+      </c>
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
         <v>18</v>
       </c>
-      <c r="B191">
+      <c r="B192">
         <v>8</v>
       </c>
-      <c r="C191" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191">
+      <c r="C192" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192">
         <v>192</v>
       </c>
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
         <v>5</v>
       </c>
-      <c r="B192">
+      <c r="B193">
         <v>18</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>17</v>
       </c>
-      <c r="D192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192">
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193">
         <v>193</v>
-      </c>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" t="s">
-        <v>22</v>
-      </c>
-      <c r="B193">
-        <v>16</v>
-      </c>
-      <c r="C193" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193">
-        <v>194</v>
       </c>
       <c r="F193"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B194">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F194"/>
     </row>
@@ -3963,16 +3961,16 @@
         <v>9</v>
       </c>
       <c r="B195">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
       </c>
       <c r="E195">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F195"/>
     </row>
@@ -3981,97 +3979,97 @@
         <v>9</v>
       </c>
       <c r="B196">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
       </c>
       <c r="E196">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
       </c>
       <c r="E197">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>198</v>
+      </c>
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
         <v>25</v>
       </c>
-      <c r="B198">
-        <v>7</v>
-      </c>
-      <c r="C198" t="s">
-        <v>20</v>
-      </c>
-      <c r="D198" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198">
+      <c r="B199">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199">
         <v>199</v>
       </c>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
         <v>4</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <v>16</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>19</v>
       </c>
-      <c r="D199" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199">
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200">
         <v>200</v>
-      </c>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" t="s">
-        <v>13</v>
-      </c>
-      <c r="B200">
-        <v>19</v>
-      </c>
-      <c r="C200" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200">
-        <v>201</v>
       </c>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B201">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -4080,106 +4078,106 @@
         <v>7</v>
       </c>
       <c r="E201">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F201"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202">
         <v>13</v>
       </c>
-      <c r="B202">
-        <v>10</v>
-      </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
       </c>
       <c r="E202">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F202"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B203">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
       </c>
       <c r="E203">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F203"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B204">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
       </c>
       <c r="E204">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F204"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B205">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
       </c>
       <c r="E205">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F205"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F206"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
@@ -4188,73 +4186,73 @@
         <v>7</v>
       </c>
       <c r="E207">
+        <v>207</v>
+      </c>
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208">
         <v>208</v>
       </c>
-      <c r="F207"/>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
         <v>9</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>18</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>21</v>
       </c>
-      <c r="D208" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208">
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209">
         <v>209</v>
-      </c>
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" t="s">
-        <v>11</v>
-      </c>
-      <c r="B209">
-        <v>15</v>
-      </c>
-      <c r="C209" t="s">
-        <v>6</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209">
-        <v>210</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
       </c>
       <c r="E210">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F210"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -4266,19 +4264,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
       </c>
       <c r="E212">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F212"/>
     </row>
@@ -4287,16 +4285,16 @@
         <v>16</v>
       </c>
       <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
         <v>17</v>
       </c>
-      <c r="C213" t="s">
-        <v>14</v>
-      </c>
       <c r="D213" t="s">
         <v>7</v>
       </c>
       <c r="E213">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F213"/>
     </row>
@@ -4305,151 +4303,151 @@
         <v>16</v>
       </c>
       <c r="B214">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
       </c>
       <c r="E214">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F214"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
       </c>
       <c r="E215">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B216">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
       </c>
       <c r="E216">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217">
         <v>11</v>
       </c>
-      <c r="B217">
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217">
+        <v>216</v>
+      </c>
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218">
         <v>4</v>
       </c>
-      <c r="C217" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217">
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218">
         <v>217</v>
       </c>
-      <c r="F217"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>10</v>
-      </c>
-      <c r="B218">
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>10</v>
+      </c>
+      <c r="B219">
         <v>21</v>
       </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218">
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219">
         <v>218</v>
-      </c>
-      <c r="F218"/>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" t="s">
-        <v>18</v>
-      </c>
-      <c r="B219">
-        <v>9</v>
-      </c>
-      <c r="C219" t="s">
-        <v>21</v>
-      </c>
-      <c r="D219" t="s">
-        <v>7</v>
-      </c>
-      <c r="E219">
-        <v>219</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
       </c>
       <c r="E220">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F220"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B221">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
       </c>
       <c r="E221">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
         <v>19</v>
@@ -4458,16 +4456,16 @@
         <v>7</v>
       </c>
       <c r="E222">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F222"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B223">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C223" t="s">
         <v>19</v>
@@ -4476,70 +4474,70 @@
         <v>7</v>
       </c>
       <c r="E223">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F223"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224">
+        <v>223</v>
+      </c>
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
         <v>18</v>
       </c>
-      <c r="B224">
+      <c r="B225">
         <v>11</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>17</v>
       </c>
-      <c r="D224" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224">
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225">
         <v>224</v>
       </c>
-      <c r="F224"/>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
         <v>9</v>
       </c>
-      <c r="B225">
-        <v>20</v>
-      </c>
-      <c r="C225" t="s">
-        <v>20</v>
-      </c>
-      <c r="D225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225">
+      <c r="B226">
+        <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226">
         <v>225</v>
-      </c>
-      <c r="F225"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" t="s">
-        <v>16</v>
-      </c>
-      <c r="B226">
-        <v>11</v>
-      </c>
-      <c r="C226" t="s">
-        <v>20</v>
-      </c>
-      <c r="D226" t="s">
-        <v>7</v>
-      </c>
-      <c r="E226">
-        <v>226</v>
       </c>
       <c r="F226"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B227">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
         <v>20</v>
@@ -4548,25 +4546,25 @@
         <v>7</v>
       </c>
       <c r="E227">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F227"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
       </c>
       <c r="E228">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F228"/>
     </row>
@@ -4575,304 +4573,304 @@
         <v>9</v>
       </c>
       <c r="B229">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
       </c>
       <c r="E229">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F229"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B230">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
       </c>
       <c r="E230">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F230"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231">
+        <v>230</v>
+      </c>
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
         <v>9</v>
       </c>
-      <c r="B231">
-        <v>10</v>
-      </c>
-      <c r="C231" t="s">
-        <v>10</v>
-      </c>
-      <c r="D231" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231">
+      <c r="B232">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232">
         <v>231</v>
       </c>
-      <c r="F231"/>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
         <v>5</v>
       </c>
-      <c r="B232">
+      <c r="B233">
         <v>19</v>
       </c>
-      <c r="C232" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232">
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233">
         <v>232</v>
-      </c>
-      <c r="F232"/>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" t="s">
-        <v>9</v>
-      </c>
-      <c r="B233">
-        <v>10</v>
-      </c>
-      <c r="C233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233">
-        <v>233</v>
       </c>
       <c r="F233"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B234">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
       </c>
       <c r="E234">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F234"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235">
+        <v>234</v>
+      </c>
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
         <v>16</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <v>19</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>14</v>
       </c>
-      <c r="D235" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235">
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236">
         <v>235</v>
       </c>
-      <c r="F235"/>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
         <v>5</v>
       </c>
-      <c r="B236">
+      <c r="B237">
         <v>17</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>19</v>
       </c>
-      <c r="D236" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236">
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237">
         <v>236</v>
       </c>
-      <c r="F236"/>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" t="s">
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
         <v>15</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <v>16</v>
       </c>
-      <c r="C237" t="s">
-        <v>20</v>
-      </c>
-      <c r="D237" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237">
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238">
         <v>237</v>
       </c>
-      <c r="F237"/>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
         <v>1</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>18</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>17</v>
       </c>
-      <c r="D238" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238">
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239">
         <v>238</v>
-      </c>
-      <c r="F238"/>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239">
-        <v>20</v>
-      </c>
-      <c r="C239" t="s">
-        <v>20</v>
-      </c>
-      <c r="D239" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239">
-        <v>239</v>
       </c>
       <c r="F239"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240">
+        <v>20</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240">
+        <v>239</v>
+      </c>
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
         <v>25</v>
       </c>
-      <c r="B240">
+      <c r="B241">
         <v>19</v>
       </c>
-      <c r="C240" t="s">
-        <v>20</v>
-      </c>
-      <c r="D240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240">
+      <c r="C241" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241">
         <v>240</v>
-      </c>
-      <c r="F240"/>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>9</v>
-      </c>
-      <c r="B241">
-        <v>18</v>
-      </c>
-      <c r="C241" t="s">
-        <v>17</v>
-      </c>
-      <c r="D241" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241">
-        <v>241</v>
       </c>
       <c r="F241"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>18</v>
+      </c>
+      <c r="C242" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242">
+        <v>241</v>
+      </c>
+      <c r="F242"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
         <v>4</v>
       </c>
-      <c r="B242">
+      <c r="B243">
         <v>9</v>
       </c>
-      <c r="C242" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242">
+      <c r="C243" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243">
         <v>242</v>
       </c>
-      <c r="F242"/>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" t="s">
+      <c r="F243"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
         <v>18</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <v>3</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>8</v>
       </c>
-      <c r="D243" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243">
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244">
         <v>243</v>
       </c>
-      <c r="F243"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
+      <c r="F244"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
         <v>1</v>
       </c>
-      <c r="B244">
+      <c r="B245">
         <v>19</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C245" t="s">
         <v>14</v>
       </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244">
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245">
         <v>244</v>
-      </c>
-      <c r="F244"/>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" t="s">
-        <v>11</v>
-      </c>
-      <c r="B245">
-        <v>18</v>
-      </c>
-      <c r="C245" t="s">
-        <v>17</v>
-      </c>
-      <c r="D245" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245">
-        <v>245</v>
       </c>
       <c r="F245"/>
     </row>
@@ -4884,67 +4882,67 @@
         <v>18</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
       </c>
       <c r="E246">
+        <v>245</v>
+      </c>
+      <c r="F246"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247">
+        <v>18</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247">
         <v>246</v>
-      </c>
-      <c r="F246"/>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247">
-        <v>5</v>
-      </c>
-      <c r="C247" t="s">
-        <v>6</v>
-      </c>
-      <c r="D247" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247">
-        <v>247</v>
       </c>
       <c r="F247"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
         <v>5</v>
       </c>
-      <c r="B248">
-        <v>4</v>
-      </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
       </c>
       <c r="E248">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F248"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B249">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
       </c>
       <c r="E249">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F249"/>
     </row>
@@ -4953,7 +4951,7 @@
         <v>10</v>
       </c>
       <c r="B250">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>10</v>
@@ -4962,193 +4960,191 @@
         <v>7</v>
       </c>
       <c r="E250">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F250"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D251" t="s">
         <v>7</v>
       </c>
       <c r="E251">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F251"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B252">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
         <v>21</v>
       </c>
-      <c r="C252" t="s">
-        <v>20</v>
-      </c>
       <c r="D252" t="s">
         <v>7</v>
       </c>
       <c r="E252">
+        <v>251</v>
+      </c>
+      <c r="F252"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>10</v>
+      </c>
+      <c r="B253">
+        <v>21</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253">
         <v>252</v>
       </c>
-      <c r="F252"/>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
+      <c r="F253"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
         <v>23</v>
       </c>
-      <c r="B253">
-        <v>20</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="B254">
+        <v>20</v>
+      </c>
+      <c r="C254" t="s">
         <v>19</v>
       </c>
-      <c r="D253" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253">
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254">
         <v>253</v>
       </c>
-      <c r="F253"/>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
+      <c r="F254"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
         <v>9</v>
       </c>
-      <c r="B254">
+      <c r="B255">
         <v>19</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>12</v>
       </c>
-      <c r="D254" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254">
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255">
         <v>254</v>
-      </c>
-      <c r="F254"/>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
-        <v>25</v>
-      </c>
-      <c r="B255">
-        <v>3</v>
-      </c>
-      <c r="C255" t="s">
-        <v>14</v>
-      </c>
-      <c r="D255" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255">
-        <v>255</v>
       </c>
       <c r="F255"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
+        <v>25</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <v>255</v>
+      </c>
+      <c r="F256"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
         <v>24</v>
       </c>
-      <c r="B256">
+      <c r="B257">
         <v>15</v>
       </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256">
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257">
         <v>257</v>
-      </c>
-      <c r="F256" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>5</v>
-      </c>
-      <c r="B257">
-        <v>14</v>
-      </c>
-      <c r="C257" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257">
-        <v>259</v>
       </c>
       <c r="F257" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" t="s">
-        <v>18</v>
+      <c r="A258">
+        <v>5</v>
       </c>
       <c r="B258">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D258" t="s">
         <v>7</v>
       </c>
       <c r="E258">
-        <v>260</v>
-      </c>
-      <c r="F258"/>
+        <v>259</v>
+      </c>
+      <c r="F258" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B259">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
       </c>
       <c r="E259">
-        <v>263</v>
-      </c>
-      <c r="F259" t="s">
-        <v>5</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F259"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B260">
         <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
         <v>7</v>
       </c>
       <c r="E260">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F260" t="s">
         <v>5</v>
@@ -5156,111 +5152,113 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D261" t="s">
         <v>7</v>
       </c>
       <c r="E261">
-        <v>266</v>
-      </c>
-      <c r="F261"/>
+        <v>265</v>
+      </c>
+      <c r="F261" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>24</v>
       </c>
       <c r="B262">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
       </c>
       <c r="E262">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F262"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B263">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D263" t="s">
         <v>7</v>
       </c>
       <c r="E263">
-        <v>269</v>
-      </c>
-      <c r="F263" t="s">
-        <v>5</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F263"/>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B264">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
       </c>
       <c r="E264">
-        <v>270</v>
-      </c>
-      <c r="F264"/>
+        <v>269</v>
+      </c>
+      <c r="F264" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B265">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
       </c>
       <c r="E265">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F265"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B266">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
       </c>
       <c r="E266">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F266"/>
     </row>
@@ -5272,13 +5270,13 @@
         <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
       </c>
       <c r="E267">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F267"/>
     </row>
@@ -5287,88 +5285,88 @@
         <v>23</v>
       </c>
       <c r="B268">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <v>273</v>
+      </c>
+      <c r="F268"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269">
         <v>18</v>
       </c>
-      <c r="C268" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268">
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269">
         <v>274</v>
-      </c>
-      <c r="F268"/>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269">
-        <v>21</v>
-      </c>
-      <c r="C269" t="s">
-        <v>6</v>
-      </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269">
-        <v>275</v>
       </c>
       <c r="F269"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B270">
+        <v>21</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270">
+        <v>275</v>
+      </c>
+      <c r="F270"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>10</v>
+      </c>
+      <c r="B271">
         <v>8</v>
       </c>
-      <c r="C270" t="s">
-        <v>6</v>
-      </c>
-      <c r="D270" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270">
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271">
         <v>276</v>
-      </c>
-      <c r="F270"/>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" t="s">
-        <v>25</v>
-      </c>
-      <c r="B271">
-        <v>19</v>
-      </c>
-      <c r="C271" t="s">
-        <v>6</v>
-      </c>
-      <c r="D271" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271">
-        <v>277</v>
       </c>
       <c r="F271"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B272">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
       </c>
       <c r="E272">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F272"/>
     </row>
@@ -5377,155 +5375,155 @@
         <v>18</v>
       </c>
       <c r="B273">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C273" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
         <v>7</v>
       </c>
       <c r="E273">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F273"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D274" t="s">
         <v>7</v>
       </c>
       <c r="E274">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F274"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B275">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D275" t="s">
         <v>7</v>
       </c>
       <c r="E275">
-        <v>282</v>
-      </c>
-      <c r="F275" t="s">
-        <v>5</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F275"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B276">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
         <v>7</v>
       </c>
       <c r="E276">
-        <v>283</v>
-      </c>
-      <c r="F276"/>
+        <v>282</v>
+      </c>
+      <c r="F276" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277">
+        <v>283</v>
+      </c>
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
         <v>9</v>
       </c>
-      <c r="B277">
-        <v>6</v>
-      </c>
-      <c r="C277" t="s">
-        <v>20</v>
-      </c>
-      <c r="D277" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277">
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278">
         <v>285</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F278" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
-      <c r="A278">
+    <row r="279" spans="1:6">
+      <c r="A279">
         <v>4</v>
       </c>
-      <c r="B278">
+      <c r="B279">
         <v>15</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C279" t="s">
         <v>21</v>
       </c>
-      <c r="D278" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278">
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279">
         <v>286</v>
-      </c>
-      <c r="F278"/>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" t="s">
-        <v>23</v>
-      </c>
-      <c r="B279">
-        <v>18</v>
-      </c>
-      <c r="C279" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" t="s">
-        <v>7</v>
-      </c>
-      <c r="E279">
-        <v>287</v>
       </c>
       <c r="F279"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
+        <v>23</v>
+      </c>
+      <c r="B280">
         <v>18</v>
       </c>
-      <c r="B280">
-        <v>14</v>
-      </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
         <v>7</v>
       </c>
       <c r="E280">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F280"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B281">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C281" t="s">
         <v>20</v>
@@ -5534,99 +5532,99 @@
         <v>7</v>
       </c>
       <c r="E281">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F281"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282">
+        <v>18</v>
+      </c>
+      <c r="C282" t="s">
+        <v>20</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282">
+        <v>289</v>
+      </c>
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
         <v>24</v>
       </c>
-      <c r="B282">
-        <v>10</v>
-      </c>
-      <c r="C282" t="s">
-        <v>20</v>
-      </c>
-      <c r="D282" t="s">
-        <v>7</v>
-      </c>
-      <c r="E282">
+      <c r="B283">
+        <v>10</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283">
         <v>291</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F283" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
-      <c r="A283">
+    <row r="284" spans="1:6">
+      <c r="A284">
         <v>1</v>
       </c>
-      <c r="B283">
+      <c r="B284">
         <v>1</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C284" t="s">
         <v>21</v>
       </c>
-      <c r="D283" t="s">
-        <v>26</v>
-      </c>
-      <c r="E283">
+      <c r="D284" t="s">
+        <v>26</v>
+      </c>
+      <c r="E284">
         <v>700</v>
-      </c>
-      <c r="F283"/>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" t="s">
-        <v>22</v>
-      </c>
-      <c r="B284">
-        <v>5</v>
-      </c>
-      <c r="C284" t="s">
-        <v>20</v>
-      </c>
-      <c r="D284" t="s">
-        <v>26</v>
-      </c>
-      <c r="E284">
-        <v>701</v>
       </c>
       <c r="F284"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B285">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
         <v>26</v>
       </c>
       <c r="E285">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F285"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B286">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D286" t="s">
         <v>26</v>
       </c>
       <c r="E286">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F286"/>
     </row>
@@ -5635,304 +5633,304 @@
         <v>11</v>
       </c>
       <c r="B287">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D287" t="s">
         <v>26</v>
       </c>
       <c r="E287">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F287"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>17</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>26</v>
+      </c>
+      <c r="E288">
+        <v>704</v>
+      </c>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
         <v>24</v>
       </c>
-      <c r="B288">
+      <c r="B289">
         <v>14</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C289" t="s">
         <v>17</v>
       </c>
-      <c r="D288" t="s">
-        <v>26</v>
-      </c>
-      <c r="E288">
+      <c r="D289" t="s">
+        <v>26</v>
+      </c>
+      <c r="E289">
         <v>705</v>
-      </c>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289">
-        <v>10</v>
-      </c>
-      <c r="B289">
-        <v>17</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" t="s">
-        <v>26</v>
-      </c>
-      <c r="E289">
-        <v>706</v>
       </c>
       <c r="F289"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
+        <v>10</v>
+      </c>
+      <c r="B290">
+        <v>17</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>26</v>
+      </c>
+      <c r="E290">
+        <v>706</v>
+      </c>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
         <v>9</v>
       </c>
-      <c r="B290">
+      <c r="B291">
         <v>16</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C291" t="s">
         <v>12</v>
       </c>
-      <c r="D290" t="s">
-        <v>26</v>
-      </c>
-      <c r="E290">
+      <c r="D291" t="s">
+        <v>26</v>
+      </c>
+      <c r="E291">
         <v>707</v>
-      </c>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" t="s">
-        <v>13</v>
-      </c>
-      <c r="B291">
-        <v>20</v>
-      </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" t="s">
-        <v>26</v>
-      </c>
-      <c r="E291">
-        <v>708</v>
       </c>
       <c r="F291"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B292">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D292" t="s">
         <v>26</v>
       </c>
       <c r="E292">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F292"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C293" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D293" t="s">
         <v>26</v>
       </c>
       <c r="E293">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F293"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" t="s">
+        <v>26</v>
+      </c>
+      <c r="E294">
+        <v>710</v>
+      </c>
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
         <v>24</v>
       </c>
-      <c r="B294">
+      <c r="B295">
         <v>14</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C295" t="s">
         <v>14</v>
       </c>
-      <c r="D294" t="s">
-        <v>26</v>
-      </c>
-      <c r="E294">
+      <c r="D295" t="s">
+        <v>26</v>
+      </c>
+      <c r="E295">
         <v>711</v>
       </c>
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295">
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
         <v>1</v>
       </c>
-      <c r="B295">
+      <c r="B296">
         <v>13</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C296" t="s">
         <v>17</v>
       </c>
-      <c r="D295" t="s">
-        <v>26</v>
-      </c>
-      <c r="E295">
+      <c r="D296" t="s">
+        <v>26</v>
+      </c>
+      <c r="E296">
         <v>712</v>
-      </c>
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" t="s">
-        <v>9</v>
-      </c>
-      <c r="B296">
-        <v>19</v>
-      </c>
-      <c r="C296" t="s">
-        <v>20</v>
-      </c>
-      <c r="D296" t="s">
-        <v>26</v>
-      </c>
-      <c r="E296">
-        <v>713</v>
       </c>
       <c r="F296"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
+        <v>9</v>
+      </c>
+      <c r="B297">
+        <v>19</v>
+      </c>
+      <c r="C297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D297" t="s">
+        <v>26</v>
+      </c>
+      <c r="E297">
+        <v>713</v>
+      </c>
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
         <v>25</v>
       </c>
-      <c r="B297">
-        <v>20</v>
-      </c>
-      <c r="C297" t="s">
-        <v>10</v>
-      </c>
-      <c r="D297" t="s">
-        <v>26</v>
-      </c>
-      <c r="E297">
+      <c r="B298">
+        <v>20</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>26</v>
+      </c>
+      <c r="E298">
         <v>714</v>
       </c>
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298">
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
         <v>5</v>
       </c>
-      <c r="B298">
+      <c r="B299">
         <v>18</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C299" t="s">
         <v>12</v>
       </c>
-      <c r="D298" t="s">
-        <v>26</v>
-      </c>
-      <c r="E298">
+      <c r="D299" t="s">
+        <v>26</v>
+      </c>
+      <c r="E299">
         <v>715</v>
-      </c>
-      <c r="F298"/>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" t="s">
-        <v>25</v>
-      </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-      <c r="C299" t="s">
-        <v>10</v>
-      </c>
-      <c r="D299" t="s">
-        <v>26</v>
-      </c>
-      <c r="E299">
-        <v>716</v>
       </c>
       <c r="F299"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>26</v>
+      </c>
+      <c r="E300">
+        <v>716</v>
+      </c>
+      <c r="F300"/>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
         <v>22</v>
       </c>
-      <c r="B300">
-        <v>7</v>
-      </c>
-      <c r="C300" t="s">
-        <v>10</v>
-      </c>
-      <c r="D300" t="s">
-        <v>26</v>
-      </c>
-      <c r="E300">
+      <c r="B301">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>26</v>
+      </c>
+      <c r="E301">
         <v>717</v>
       </c>
-      <c r="F300"/>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301">
+      <c r="F301"/>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302">
         <v>5</v>
       </c>
-      <c r="B301">
+      <c r="B302">
         <v>4</v>
       </c>
-      <c r="C301" t="s">
-        <v>10</v>
-      </c>
-      <c r="D301" t="s">
-        <v>26</v>
-      </c>
-      <c r="E301">
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>26</v>
+      </c>
+      <c r="E302">
         <v>718</v>
-      </c>
-      <c r="F301"/>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" t="s">
-        <v>16</v>
-      </c>
-      <c r="B302">
-        <v>18</v>
-      </c>
-      <c r="C302" t="s">
-        <v>17</v>
-      </c>
-      <c r="D302" t="s">
-        <v>26</v>
-      </c>
-      <c r="E302">
-        <v>719</v>
       </c>
       <c r="F302"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D303" t="s">
         <v>26</v>
       </c>
       <c r="E303">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F303"/>
     </row>
@@ -5941,313 +5939,313 @@
         <v>25</v>
       </c>
       <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>26</v>
+      </c>
+      <c r="E304">
+        <v>720</v>
+      </c>
+      <c r="F304"/>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305">
         <v>18</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C305" t="s">
         <v>17</v>
       </c>
-      <c r="D304" t="s">
-        <v>26</v>
-      </c>
-      <c r="E304">
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305">
         <v>721</v>
       </c>
-      <c r="F304"/>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305">
+      <c r="F305"/>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306">
         <v>5</v>
       </c>
-      <c r="B305">
+      <c r="B306">
         <v>5</v>
       </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" t="s">
-        <v>26</v>
-      </c>
-      <c r="E305">
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>26</v>
+      </c>
+      <c r="E306">
         <v>722</v>
       </c>
-      <c r="F305"/>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" t="s">
+      <c r="F306"/>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
         <v>24</v>
       </c>
-      <c r="B306">
+      <c r="B307">
         <v>17</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" t="s">
         <v>14</v>
       </c>
-      <c r="D306" t="s">
-        <v>26</v>
-      </c>
-      <c r="E306">
+      <c r="D307" t="s">
+        <v>26</v>
+      </c>
+      <c r="E307">
         <v>723</v>
       </c>
-      <c r="F306"/>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307">
+      <c r="F307"/>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
         <v>1</v>
       </c>
-      <c r="B307">
+      <c r="B308">
         <v>13</v>
       </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-      <c r="D307" t="s">
-        <v>26</v>
-      </c>
-      <c r="E307">
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>26</v>
+      </c>
+      <c r="E308">
         <v>724</v>
-      </c>
-      <c r="F307"/>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" t="s">
-        <v>9</v>
-      </c>
-      <c r="B308">
-        <v>17</v>
-      </c>
-      <c r="C308" t="s">
-        <v>20</v>
-      </c>
-      <c r="D308" t="s">
-        <v>26</v>
-      </c>
-      <c r="E308">
-        <v>725</v>
       </c>
       <c r="F308"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B309">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D309" t="s">
         <v>26</v>
       </c>
       <c r="E309">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F309"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B310">
+        <v>21</v>
+      </c>
+      <c r="C310" t="s">
         <v>17</v>
       </c>
-      <c r="C310" t="s">
-        <v>20</v>
-      </c>
       <c r="D310" t="s">
         <v>26</v>
       </c>
       <c r="E310">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F310"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B311">
         <v>17</v>
       </c>
       <c r="C311" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D311" t="s">
         <v>26</v>
       </c>
       <c r="E311">
+        <v>727</v>
+      </c>
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312">
+        <v>17</v>
+      </c>
+      <c r="C312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>26</v>
+      </c>
+      <c r="E312">
         <v>728</v>
-      </c>
-      <c r="F311"/>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312">
-        <v>5</v>
-      </c>
-      <c r="B312">
-        <v>15</v>
-      </c>
-      <c r="C312" t="s">
-        <v>21</v>
-      </c>
-      <c r="D312" t="s">
-        <v>26</v>
-      </c>
-      <c r="E312">
-        <v>729</v>
       </c>
       <c r="F312"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B313">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" t="s">
+        <v>26</v>
+      </c>
+      <c r="E313">
+        <v>729</v>
+      </c>
+      <c r="F313"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314">
+        <v>10</v>
+      </c>
+      <c r="B314">
         <v>11</v>
       </c>
-      <c r="C313" t="s">
-        <v>10</v>
-      </c>
-      <c r="D313" t="s">
-        <v>26</v>
-      </c>
-      <c r="E313">
+      <c r="C314" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" t="s">
+        <v>26</v>
+      </c>
+      <c r="E314">
         <v>730</v>
-      </c>
-      <c r="F313"/>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314" t="s">
-        <v>25</v>
-      </c>
-      <c r="B314">
-        <v>16</v>
-      </c>
-      <c r="C314" t="s">
-        <v>17</v>
-      </c>
-      <c r="D314" t="s">
-        <v>26</v>
-      </c>
-      <c r="E314">
-        <v>731</v>
       </c>
       <c r="F314"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
+        <v>25</v>
+      </c>
+      <c r="B315">
         <v>16</v>
       </c>
-      <c r="B315">
-        <v>7</v>
-      </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D315" t="s">
         <v>26</v>
       </c>
       <c r="E315">
+        <v>731</v>
+      </c>
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" t="s">
+        <v>26</v>
+      </c>
+      <c r="E316">
         <v>732</v>
       </c>
-      <c r="F315"/>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316">
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317">
         <v>9</v>
       </c>
-      <c r="B316">
+      <c r="B317">
         <v>8</v>
       </c>
-      <c r="C316" t="s">
-        <v>6</v>
-      </c>
-      <c r="D316" t="s">
-        <v>26</v>
-      </c>
-      <c r="E316">
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>26</v>
+      </c>
+      <c r="E317">
         <v>733</v>
       </c>
-      <c r="F316"/>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317" t="s">
+      <c r="F317"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
         <v>15</v>
       </c>
-      <c r="B317">
+      <c r="B318">
         <v>5</v>
       </c>
-      <c r="C317" t="s">
-        <v>10</v>
-      </c>
-      <c r="D317" t="s">
-        <v>26</v>
-      </c>
-      <c r="E317">
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" t="s">
+        <v>26</v>
+      </c>
+      <c r="E318">
         <v>734</v>
       </c>
-      <c r="F317"/>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318">
+      <c r="F318"/>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319">
         <v>9</v>
       </c>
-      <c r="B318">
-        <v>10</v>
-      </c>
-      <c r="C318" t="s">
-        <v>10</v>
-      </c>
-      <c r="D318" t="s">
-        <v>26</v>
-      </c>
-      <c r="E318">
+      <c r="B319">
+        <v>10</v>
+      </c>
+      <c r="C319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" t="s">
+        <v>26</v>
+      </c>
+      <c r="E319">
         <v>735</v>
-      </c>
-      <c r="F318"/>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" t="s">
-        <v>18</v>
-      </c>
-      <c r="B319">
-        <v>21</v>
-      </c>
-      <c r="C319" t="s">
-        <v>12</v>
-      </c>
-      <c r="D319" t="s">
-        <v>26</v>
-      </c>
-      <c r="E319">
-        <v>736</v>
       </c>
       <c r="F319"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B320">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D320" t="s">
         <v>26</v>
       </c>
       <c r="E320">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F320"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B321">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C321" t="s">
         <v>10</v>
@@ -6256,52 +6254,52 @@
         <v>26</v>
       </c>
       <c r="E321">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F321"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B322">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C322" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D322" t="s">
         <v>26</v>
       </c>
       <c r="E322">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F322"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F323"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B324">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
@@ -6310,7 +6308,7 @@
         <v>26</v>
       </c>
       <c r="E324">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F324"/>
     </row>
@@ -6319,133 +6317,133 @@
         <v>16</v>
       </c>
       <c r="B325">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C325" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D325" t="s">
         <v>26</v>
       </c>
       <c r="E325">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F325"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B326">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D326" t="s">
         <v>26</v>
       </c>
       <c r="E326">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F326"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B327">
         <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
         <v>26</v>
       </c>
       <c r="E327">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F327"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B328">
         <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F328"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B329">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D329" t="s">
         <v>26</v>
       </c>
       <c r="E329">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F329"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B330">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D330" t="s">
         <v>26</v>
       </c>
       <c r="E330">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F330"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D331" t="s">
         <v>26</v>
       </c>
       <c r="E331">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F331"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B332">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C332" t="s">
         <v>10</v>
@@ -6454,52 +6452,52 @@
         <v>26</v>
       </c>
       <c r="E332">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F332"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B333">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F333"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D334" t="s">
         <v>26</v>
       </c>
       <c r="E334">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F334"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C335" t="s">
         <v>8</v>
@@ -6508,79 +6506,79 @@
         <v>26</v>
       </c>
       <c r="E335">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F335"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" t="s">
+        <v>26</v>
+      </c>
+      <c r="E336">
+        <v>752</v>
+      </c>
+      <c r="F336"/>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
         <v>25</v>
       </c>
-      <c r="B336">
+      <c r="B337">
         <v>11</v>
       </c>
-      <c r="C336" t="s">
-        <v>20</v>
-      </c>
-      <c r="D336" t="s">
-        <v>26</v>
-      </c>
-      <c r="E336">
+      <c r="C337" t="s">
+        <v>20</v>
+      </c>
+      <c r="D337" t="s">
+        <v>26</v>
+      </c>
+      <c r="E337">
         <v>753</v>
       </c>
-      <c r="F336"/>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337">
+      <c r="F337"/>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
         <v>4</v>
       </c>
-      <c r="B337">
+      <c r="B338">
         <v>13</v>
       </c>
-      <c r="C337" t="s">
-        <v>10</v>
-      </c>
-      <c r="D337" t="s">
-        <v>26</v>
-      </c>
-      <c r="E337">
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>26</v>
+      </c>
+      <c r="E338">
         <v>754</v>
-      </c>
-      <c r="F337"/>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338" t="s">
-        <v>11</v>
-      </c>
-      <c r="B338">
-        <v>10</v>
-      </c>
-      <c r="C338" t="s">
-        <v>10</v>
-      </c>
-      <c r="D338" t="s">
-        <v>26</v>
-      </c>
-      <c r="E338">
-        <v>755</v>
       </c>
       <c r="F338"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B339">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C339" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F339"/>
     </row>
@@ -6589,351 +6587,351 @@
         <v>22</v>
       </c>
       <c r="B340">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C340" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F340"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B341">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C341" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F341"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
+        <v>23</v>
+      </c>
+      <c r="B342">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>26</v>
+      </c>
+      <c r="E342">
+        <v>758</v>
+      </c>
+      <c r="F342"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
         <v>9</v>
       </c>
-      <c r="B342">
+      <c r="B343">
         <v>15</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C343" t="s">
         <v>17</v>
       </c>
-      <c r="D342" t="s">
-        <v>26</v>
-      </c>
-      <c r="E342">
+      <c r="D343" t="s">
+        <v>26</v>
+      </c>
+      <c r="E343">
         <v>759</v>
       </c>
-      <c r="F342"/>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343">
+      <c r="F343"/>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344">
         <v>1</v>
       </c>
-      <c r="B343">
+      <c r="B344">
         <v>4</v>
       </c>
-      <c r="C343" t="s">
-        <v>20</v>
-      </c>
-      <c r="D343" t="s">
-        <v>26</v>
-      </c>
-      <c r="E343">
+      <c r="C344" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344" t="s">
+        <v>26</v>
+      </c>
+      <c r="E344">
         <v>760</v>
-      </c>
-      <c r="F343"/>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" t="s">
-        <v>9</v>
-      </c>
-      <c r="B344">
-        <v>9</v>
-      </c>
-      <c r="C344" t="s">
-        <v>10</v>
-      </c>
-      <c r="D344" t="s">
-        <v>26</v>
-      </c>
-      <c r="E344">
-        <v>761</v>
       </c>
       <c r="F344"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D345" t="s">
         <v>26</v>
       </c>
       <c r="E345">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F345"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B346">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C346" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D346" t="s">
         <v>26</v>
       </c>
       <c r="E346">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F346"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B347">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D347" t="s">
         <v>26</v>
       </c>
       <c r="E347">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F347"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C348" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D348" t="s">
         <v>26</v>
       </c>
       <c r="E348">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F348"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B349">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C349" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D349" t="s">
         <v>26</v>
       </c>
       <c r="E349">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F349"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B350">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D350" t="s">
         <v>26</v>
       </c>
       <c r="E350">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F350"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B351">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D351" t="s">
         <v>26</v>
       </c>
       <c r="E351">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F351"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" t="s">
+        <v>26</v>
+      </c>
+      <c r="E352">
+        <v>768</v>
+      </c>
+      <c r="F352"/>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
         <v>24</v>
       </c>
-      <c r="B352">
+      <c r="B353">
         <v>4</v>
       </c>
-      <c r="C352" t="s">
-        <v>20</v>
-      </c>
-      <c r="D352" t="s">
-        <v>26</v>
-      </c>
-      <c r="E352">
+      <c r="C353" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" t="s">
+        <v>26</v>
+      </c>
+      <c r="E353">
         <v>769</v>
       </c>
-      <c r="F352"/>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353">
+      <c r="F353"/>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354">
         <v>9</v>
       </c>
-      <c r="B353">
+      <c r="B354">
         <v>21</v>
       </c>
-      <c r="C353" t="s">
-        <v>6</v>
-      </c>
-      <c r="D353" t="s">
-        <v>26</v>
-      </c>
-      <c r="E353">
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>26</v>
+      </c>
+      <c r="E354">
         <v>770</v>
       </c>
-      <c r="F353"/>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354" t="s">
+      <c r="F354"/>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
         <v>23</v>
       </c>
-      <c r="B354">
+      <c r="B355">
         <v>15</v>
       </c>
-      <c r="C354" t="s">
-        <v>10</v>
-      </c>
-      <c r="D354" t="s">
-        <v>26</v>
-      </c>
-      <c r="E354">
+      <c r="C355" t="s">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>26</v>
+      </c>
+      <c r="E355">
         <v>772</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F355" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355">
-        <v>9</v>
-      </c>
-      <c r="B355">
-        <v>21</v>
-      </c>
-      <c r="C355" t="s">
-        <v>14</v>
-      </c>
-      <c r="D355" t="s">
-        <v>26</v>
-      </c>
-      <c r="E355">
-        <v>773</v>
-      </c>
-      <c r="F355"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B356">
         <v>21</v>
       </c>
       <c r="C356" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" t="s">
+        <v>26</v>
+      </c>
+      <c r="E356">
+        <v>773</v>
+      </c>
+      <c r="F356"/>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357">
+        <v>10</v>
+      </c>
+      <c r="B357">
+        <v>21</v>
+      </c>
+      <c r="C357" t="s">
         <v>19</v>
       </c>
-      <c r="D356" t="s">
-        <v>26</v>
-      </c>
-      <c r="E356">
+      <c r="D357" t="s">
+        <v>26</v>
+      </c>
+      <c r="E357">
         <v>774</v>
-      </c>
-      <c r="F356"/>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" t="s">
-        <v>22</v>
-      </c>
-      <c r="B357">
-        <v>9</v>
-      </c>
-      <c r="C357" t="s">
-        <v>8</v>
-      </c>
-      <c r="D357" t="s">
-        <v>26</v>
-      </c>
-      <c r="E357">
-        <v>775</v>
       </c>
       <c r="F357"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B358">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D358" t="s">
         <v>26</v>
       </c>
       <c r="E358">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F358"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B359">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C359" t="s">
         <v>20</v>
@@ -6942,16 +6940,16 @@
         <v>26</v>
       </c>
       <c r="E359">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F359"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B360">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C360" t="s">
         <v>20</v>
@@ -6960,88 +6958,88 @@
         <v>26</v>
       </c>
       <c r="E360">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F360"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361">
+        <v>21</v>
+      </c>
+      <c r="C361" t="s">
+        <v>20</v>
+      </c>
+      <c r="D361" t="s">
+        <v>26</v>
+      </c>
+      <c r="E361">
+        <v>778</v>
+      </c>
+      <c r="F361"/>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
         <v>24</v>
       </c>
-      <c r="B361">
+      <c r="B362">
         <v>9</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C362" t="s">
         <v>17</v>
       </c>
-      <c r="D361" t="s">
-        <v>26</v>
-      </c>
-      <c r="E361">
+      <c r="D362" t="s">
+        <v>26</v>
+      </c>
+      <c r="E362">
         <v>779</v>
       </c>
-      <c r="F361"/>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362">
+      <c r="F362"/>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363">
         <v>5</v>
       </c>
-      <c r="B362">
+      <c r="B363">
         <v>4</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C363" t="s">
         <v>14</v>
       </c>
-      <c r="D362" t="s">
-        <v>26</v>
-      </c>
-      <c r="E362">
+      <c r="D363" t="s">
+        <v>26</v>
+      </c>
+      <c r="E363">
         <v>780</v>
-      </c>
-      <c r="F362"/>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" t="s">
-        <v>18</v>
-      </c>
-      <c r="B363">
-        <v>8</v>
-      </c>
-      <c r="C363" t="s">
-        <v>8</v>
-      </c>
-      <c r="D363" t="s">
-        <v>26</v>
-      </c>
-      <c r="E363">
-        <v>781</v>
       </c>
       <c r="F363"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B364">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C364" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D364" t="s">
         <v>26</v>
       </c>
       <c r="E364">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F364"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B365">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C365" t="s">
         <v>20</v>
@@ -7050,25 +7048,25 @@
         <v>26</v>
       </c>
       <c r="E365">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F365"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B366">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C366" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F366"/>
     </row>
@@ -7077,61 +7075,61 @@
         <v>24</v>
       </c>
       <c r="B367">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C367" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F367"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368">
+        <v>11</v>
+      </c>
+      <c r="C368" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" t="s">
+        <v>26</v>
+      </c>
+      <c r="E368">
+        <v>785</v>
+      </c>
+      <c r="F368"/>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
         <v>25</v>
       </c>
-      <c r="B368">
+      <c r="B369">
         <v>4</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C369" t="s">
         <v>21</v>
       </c>
-      <c r="D368" t="s">
-        <v>26</v>
-      </c>
-      <c r="E368">
+      <c r="D369" t="s">
+        <v>26</v>
+      </c>
+      <c r="E369">
         <v>786</v>
-      </c>
-      <c r="F368"/>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369">
-        <v>9</v>
-      </c>
-      <c r="B369">
-        <v>8</v>
-      </c>
-      <c r="C369" t="s">
-        <v>8</v>
-      </c>
-      <c r="D369" t="s">
-        <v>26</v>
-      </c>
-      <c r="E369">
-        <v>787</v>
       </c>
       <c r="F369"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B370">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C370" t="s">
         <v>8</v>
@@ -7140,16 +7138,16 @@
         <v>26</v>
       </c>
       <c r="E370">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F370"/>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" t="s">
-        <v>24</v>
+      <c r="A371">
+        <v>5</v>
       </c>
       <c r="B371">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -7158,61 +7156,61 @@
         <v>26</v>
       </c>
       <c r="E371">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F371"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B372">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C372" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F372"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
+        <v>22</v>
+      </c>
+      <c r="B373">
+        <v>12</v>
+      </c>
+      <c r="C373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" t="s">
+        <v>26</v>
+      </c>
+      <c r="E373">
+        <v>790</v>
+      </c>
+      <c r="F373"/>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
         <v>18</v>
       </c>
-      <c r="B373">
+      <c r="B374">
         <v>11</v>
       </c>
-      <c r="C373" t="s">
-        <v>10</v>
-      </c>
-      <c r="D373" t="s">
-        <v>26</v>
-      </c>
-      <c r="E373">
+      <c r="C374" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" t="s">
+        <v>26</v>
+      </c>
+      <c r="E374">
         <v>791</v>
-      </c>
-      <c r="F373"/>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374">
-        <v>1</v>
-      </c>
-      <c r="B374">
-        <v>5</v>
-      </c>
-      <c r="C374" t="s">
-        <v>21</v>
-      </c>
-      <c r="D374" t="s">
-        <v>26</v>
-      </c>
-      <c r="E374">
-        <v>792</v>
       </c>
       <c r="F374"/>
     </row>
@@ -7221,16 +7219,16 @@
         <v>1</v>
       </c>
       <c r="B375">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F375"/>
     </row>
@@ -7239,151 +7237,151 @@
         <v>1</v>
       </c>
       <c r="B376">
+        <v>18</v>
+      </c>
+      <c r="C376" t="s">
+        <v>19</v>
+      </c>
+      <c r="D376" t="s">
+        <v>26</v>
+      </c>
+      <c r="E376">
+        <v>793</v>
+      </c>
+      <c r="F376"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377">
         <v>8</v>
       </c>
-      <c r="C376" t="s">
-        <v>10</v>
-      </c>
-      <c r="D376" t="s">
-        <v>26</v>
-      </c>
-      <c r="E376">
+      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>26</v>
+      </c>
+      <c r="E377">
         <v>794</v>
-      </c>
-      <c r="F376"/>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="A377" t="s">
-        <v>15</v>
-      </c>
-      <c r="B377">
-        <v>13</v>
-      </c>
-      <c r="C377" t="s">
-        <v>14</v>
-      </c>
-      <c r="D377" t="s">
-        <v>26</v>
-      </c>
-      <c r="E377">
-        <v>795</v>
       </c>
       <c r="F377"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B378">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C378" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F378"/>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B379">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C379" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F379"/>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B380">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C380" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F380"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B381">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C381" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F381"/>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B382">
         <v>8</v>
       </c>
       <c r="C382" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F382"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B383">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C383" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F383"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B384">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
         <v>6</v>
@@ -7392,160 +7390,160 @@
         <v>26</v>
       </c>
       <c r="E384">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F384"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385">
+        <v>13</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>26</v>
+      </c>
+      <c r="E385">
+        <v>802</v>
+      </c>
+      <c r="F385"/>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
         <v>15</v>
       </c>
-      <c r="B385">
+      <c r="B386">
         <v>4</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C386" t="s">
         <v>17</v>
       </c>
-      <c r="D385" t="s">
-        <v>26</v>
-      </c>
-      <c r="E385">
+      <c r="D386" t="s">
+        <v>26</v>
+      </c>
+      <c r="E386">
         <v>803</v>
       </c>
-      <c r="F385"/>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386">
+      <c r="F386"/>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387">
         <v>5</v>
       </c>
-      <c r="B386">
+      <c r="B387">
         <v>19</v>
       </c>
-      <c r="C386" t="s">
-        <v>20</v>
-      </c>
-      <c r="D386" t="s">
-        <v>26</v>
-      </c>
-      <c r="E386">
+      <c r="C387" t="s">
+        <v>20</v>
+      </c>
+      <c r="D387" t="s">
+        <v>26</v>
+      </c>
+      <c r="E387">
         <v>804</v>
-      </c>
-      <c r="F386"/>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" t="s">
-        <v>13</v>
-      </c>
-      <c r="B387">
-        <v>4</v>
-      </c>
-      <c r="C387" t="s">
-        <v>8</v>
-      </c>
-      <c r="D387" t="s">
-        <v>26</v>
-      </c>
-      <c r="E387">
-        <v>805</v>
       </c>
       <c r="F387"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" t="s">
+        <v>26</v>
+      </c>
+      <c r="E388">
+        <v>805</v>
+      </c>
+      <c r="F388"/>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
         <v>22</v>
       </c>
-      <c r="B388">
+      <c r="B389">
         <v>14</v>
       </c>
-      <c r="C388" t="s">
-        <v>10</v>
-      </c>
-      <c r="D388" t="s">
-        <v>26</v>
-      </c>
-      <c r="E388">
+      <c r="C389" t="s">
+        <v>10</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389">
         <v>806</v>
       </c>
-      <c r="F388"/>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389">
+      <c r="F389"/>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390">
         <v>4</v>
       </c>
-      <c r="B389">
+      <c r="B390">
         <v>15</v>
       </c>
-      <c r="C389" t="s">
-        <v>20</v>
-      </c>
-      <c r="D389" t="s">
-        <v>26</v>
-      </c>
-      <c r="E389">
+      <c r="C390" t="s">
+        <v>20</v>
+      </c>
+      <c r="D390" t="s">
+        <v>26</v>
+      </c>
+      <c r="E390">
         <v>807</v>
-      </c>
-      <c r="F389"/>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="A390" t="s">
-        <v>9</v>
-      </c>
-      <c r="B390">
-        <v>13</v>
-      </c>
-      <c r="C390" t="s">
-        <v>8</v>
-      </c>
-      <c r="D390" t="s">
-        <v>26</v>
-      </c>
-      <c r="E390">
-        <v>808</v>
       </c>
       <c r="F390"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B391">
+        <v>13</v>
+      </c>
+      <c r="C391" t="s">
         <v>8</v>
       </c>
-      <c r="C391" t="s">
-        <v>6</v>
-      </c>
       <c r="D391" t="s">
         <v>26</v>
       </c>
       <c r="E391">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F391"/>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B392">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D392" t="s">
         <v>26</v>
       </c>
       <c r="E392">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F392"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C393" t="s">
         <v>20</v>
@@ -7554,7 +7552,7 @@
         <v>26</v>
       </c>
       <c r="E393">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F393"/>
     </row>
@@ -7563,70 +7561,70 @@
         <v>11</v>
       </c>
       <c r="B394">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C394" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D394" t="s">
         <v>26</v>
       </c>
       <c r="E394">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F394"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395">
+        <v>14</v>
+      </c>
+      <c r="C395" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395" t="s">
+        <v>26</v>
+      </c>
+      <c r="E395">
+        <v>812</v>
+      </c>
+      <c r="F395"/>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
         <v>15</v>
       </c>
-      <c r="B395">
+      <c r="B396">
         <v>2</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C396" t="s">
         <v>8</v>
       </c>
-      <c r="D395" t="s">
-        <v>26</v>
-      </c>
-      <c r="E395">
+      <c r="D396" t="s">
+        <v>26</v>
+      </c>
+      <c r="E396">
         <v>813</v>
       </c>
-      <c r="F395"/>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="A396">
-        <v>10</v>
-      </c>
-      <c r="B396">
+      <c r="F396"/>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397">
+        <v>10</v>
+      </c>
+      <c r="B397">
         <v>19</v>
       </c>
-      <c r="C396" t="s">
-        <v>20</v>
-      </c>
-      <c r="D396" t="s">
-        <v>26</v>
-      </c>
-      <c r="E396">
+      <c r="C397" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" t="s">
+        <v>26</v>
+      </c>
+      <c r="E397">
         <v>814</v>
-      </c>
-      <c r="F396"/>
-    </row>
-    <row r="397" spans="1:6">
-      <c r="A397" t="s">
-        <v>23</v>
-      </c>
-      <c r="B397">
-        <v>17</v>
-      </c>
-      <c r="C397" t="s">
-        <v>10</v>
-      </c>
-      <c r="D397" t="s">
-        <v>26</v>
-      </c>
-      <c r="E397">
-        <v>815</v>
       </c>
       <c r="F397"/>
     </row>
@@ -7635,22 +7633,22 @@
         <v>23</v>
       </c>
       <c r="B398">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D398" t="s">
         <v>26</v>
       </c>
       <c r="E398">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F398"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B399">
         <v>15</v>
@@ -7662,49 +7660,49 @@
         <v>26</v>
       </c>
       <c r="E399">
+        <v>816</v>
+      </c>
+      <c r="F399"/>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400">
+        <v>15</v>
+      </c>
+      <c r="C400" t="s">
+        <v>8</v>
+      </c>
+      <c r="D400" t="s">
+        <v>26</v>
+      </c>
+      <c r="E400">
         <v>817</v>
-      </c>
-      <c r="F399"/>
-    </row>
-    <row r="400" spans="1:6">
-      <c r="A400">
-        <v>5</v>
-      </c>
-      <c r="B400">
-        <v>17</v>
-      </c>
-      <c r="C400" t="s">
-        <v>10</v>
-      </c>
-      <c r="D400" t="s">
-        <v>26</v>
-      </c>
-      <c r="E400">
-        <v>818</v>
       </c>
       <c r="F400"/>
     </row>
     <row r="401" spans="1:6">
       <c r="A401">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C401" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D401" t="s">
         <v>26</v>
       </c>
       <c r="E401">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F401"/>
     </row>
     <row r="402" spans="1:6">
       <c r="A402">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -7716,115 +7714,115 @@
         <v>26</v>
       </c>
       <c r="E402">
+        <v>819</v>
+      </c>
+      <c r="F402"/>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403">
+        <v>10</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>26</v>
+      </c>
+      <c r="E403">
         <v>820</v>
-      </c>
-      <c r="F402"/>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="A403" t="s">
-        <v>11</v>
-      </c>
-      <c r="B403">
-        <v>7</v>
-      </c>
-      <c r="C403" t="s">
-        <v>8</v>
-      </c>
-      <c r="D403" t="s">
-        <v>26</v>
-      </c>
-      <c r="E403">
-        <v>821</v>
       </c>
       <c r="F403"/>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
+        <v>11</v>
+      </c>
+      <c r="B404">
+        <v>7</v>
+      </c>
+      <c r="C404" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" t="s">
+        <v>26</v>
+      </c>
+      <c r="E404">
+        <v>821</v>
+      </c>
+      <c r="F404"/>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
         <v>13</v>
       </c>
-      <c r="B404">
+      <c r="B405">
         <v>11</v>
       </c>
-      <c r="C404" t="s">
-        <v>6</v>
-      </c>
-      <c r="D404" t="s">
-        <v>26</v>
-      </c>
-      <c r="E404">
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>26</v>
+      </c>
+      <c r="E405">
         <v>822</v>
       </c>
-      <c r="F404"/>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="A405">
+      <c r="F405"/>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406">
         <v>1</v>
       </c>
-      <c r="B405">
+      <c r="B406">
         <v>8</v>
       </c>
-      <c r="C405" t="s">
-        <v>6</v>
-      </c>
-      <c r="D405" t="s">
-        <v>26</v>
-      </c>
-      <c r="E405">
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E406">
         <v>823</v>
-      </c>
-      <c r="F405"/>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="A406" t="s">
-        <v>23</v>
-      </c>
-      <c r="B406">
-        <v>10</v>
-      </c>
-      <c r="C406" t="s">
-        <v>14</v>
-      </c>
-      <c r="D406" t="s">
-        <v>26</v>
-      </c>
-      <c r="E406">
-        <v>824</v>
       </c>
       <c r="F406"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407">
+        <v>10</v>
+      </c>
+      <c r="C407" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" t="s">
+        <v>26</v>
+      </c>
+      <c r="E407">
+        <v>824</v>
+      </c>
+      <c r="F407"/>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
         <v>13</v>
       </c>
-      <c r="B407">
+      <c r="B408">
         <v>2</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C408" t="s">
         <v>8</v>
       </c>
-      <c r="D407" t="s">
-        <v>26</v>
-      </c>
-      <c r="E407">
+      <c r="D408" t="s">
+        <v>26</v>
+      </c>
+      <c r="E408">
         <v>825</v>
-      </c>
-      <c r="F407"/>
-    </row>
-    <row r="408" spans="1:6">
-      <c r="A408">
-        <v>9</v>
-      </c>
-      <c r="B408">
-        <v>18</v>
-      </c>
-      <c r="C408" t="s">
-        <v>10</v>
-      </c>
-      <c r="D408" t="s">
-        <v>26</v>
-      </c>
-      <c r="E408">
-        <v>826</v>
       </c>
       <c r="F408"/>
     </row>
@@ -7833,295 +7831,295 @@
         <v>9</v>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C409" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D409" t="s">
         <v>26</v>
       </c>
       <c r="E409">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F409"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B410">
         <v>3</v>
       </c>
       <c r="C410" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D410" t="s">
         <v>26</v>
       </c>
       <c r="E410">
+        <v>827</v>
+      </c>
+      <c r="F410"/>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411">
+        <v>1</v>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+      <c r="C411" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" t="s">
+        <v>26</v>
+      </c>
+      <c r="E411">
         <v>828</v>
-      </c>
-      <c r="F410"/>
-    </row>
-    <row r="411" spans="1:6">
-      <c r="A411" t="s">
-        <v>11</v>
-      </c>
-      <c r="B411">
-        <v>16</v>
-      </c>
-      <c r="C411" t="s">
-        <v>10</v>
-      </c>
-      <c r="D411" t="s">
-        <v>26</v>
-      </c>
-      <c r="E411">
-        <v>829</v>
       </c>
       <c r="F411"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B412">
         <v>16</v>
       </c>
       <c r="C412" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D412" t="s">
         <v>26</v>
       </c>
       <c r="E412">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F412"/>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B413">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C413" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D413" t="s">
         <v>26</v>
       </c>
       <c r="E413">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F413"/>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B414">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D414" t="s">
         <v>26</v>
       </c>
       <c r="E414">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F414"/>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B415">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C415" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D415" t="s">
         <v>26</v>
       </c>
       <c r="E415">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F415"/>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B416">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C416" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D416" t="s">
         <v>26</v>
       </c>
       <c r="E416">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F416"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B417">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C417" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D417" t="s">
         <v>26</v>
       </c>
       <c r="E417">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F417"/>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418">
+        <v>21</v>
+      </c>
+      <c r="C418" t="s">
+        <v>17</v>
+      </c>
+      <c r="D418" t="s">
+        <v>26</v>
+      </c>
+      <c r="E418">
+        <v>835</v>
+      </c>
+      <c r="F418"/>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
         <v>16</v>
       </c>
-      <c r="B418">
+      <c r="B419">
         <v>9</v>
       </c>
-      <c r="C418" t="s">
-        <v>20</v>
-      </c>
-      <c r="D418" t="s">
-        <v>26</v>
-      </c>
-      <c r="E418">
+      <c r="C419" t="s">
+        <v>20</v>
+      </c>
+      <c r="D419" t="s">
+        <v>26</v>
+      </c>
+      <c r="E419">
         <v>836</v>
       </c>
-      <c r="F418"/>
-    </row>
-    <row r="419" spans="1:6">
-      <c r="A419">
+      <c r="F419"/>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420">
         <v>1</v>
       </c>
-      <c r="B419">
+      <c r="B420">
         <v>1</v>
       </c>
-      <c r="C419" t="s">
-        <v>10</v>
-      </c>
-      <c r="D419" t="s">
-        <v>26</v>
-      </c>
-      <c r="E419">
+      <c r="C420" t="s">
+        <v>10</v>
+      </c>
+      <c r="D420" t="s">
+        <v>26</v>
+      </c>
+      <c r="E420">
         <v>837</v>
       </c>
-      <c r="F419"/>
-    </row>
-    <row r="420" spans="1:6">
-      <c r="A420" t="s">
+      <c r="F420"/>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
         <v>9</v>
       </c>
-      <c r="B420">
+      <c r="B421">
         <v>18</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C421" t="s">
         <v>17</v>
       </c>
-      <c r="D420" t="s">
-        <v>26</v>
-      </c>
-      <c r="E420">
+      <c r="D421" t="s">
+        <v>26</v>
+      </c>
+      <c r="E421">
         <v>838</v>
       </c>
-      <c r="F420"/>
-    </row>
-    <row r="421" spans="1:6">
-      <c r="A421">
+      <c r="F421"/>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422">
         <v>5</v>
       </c>
-      <c r="B421">
+      <c r="B422">
         <v>4</v>
       </c>
-      <c r="C421" t="s">
-        <v>6</v>
-      </c>
-      <c r="D421" t="s">
-        <v>26</v>
-      </c>
-      <c r="E421">
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>26</v>
+      </c>
+      <c r="E422">
         <v>839</v>
-      </c>
-      <c r="F421"/>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="A422" t="s">
-        <v>25</v>
-      </c>
-      <c r="B422">
-        <v>19</v>
-      </c>
-      <c r="C422" t="s">
-        <v>19</v>
-      </c>
-      <c r="D422" t="s">
-        <v>26</v>
-      </c>
-      <c r="E422">
-        <v>840</v>
       </c>
       <c r="F422"/>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C423" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D423" t="s">
         <v>26</v>
       </c>
       <c r="E423">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F423"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B424">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D424" t="s">
         <v>26</v>
       </c>
       <c r="E424">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F424"/>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B425">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C425" t="s">
         <v>17</v>
@@ -8130,25 +8128,25 @@
         <v>26</v>
       </c>
       <c r="E425">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F425"/>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B426">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C426" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D426" t="s">
         <v>26</v>
       </c>
       <c r="E426">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F426"/>
     </row>
@@ -8168,7 +8166,9 @@
       <c r="E427">
         <v>845</v>
       </c>
-      <c r="F427"/>
+      <c r="F427" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
@@ -9601,20 +9601,20 @@
       <c r="F506"/>
     </row>
     <row r="507" spans="1:6">
-      <c r="A507">
-        <v>5</v>
+      <c r="A507" t="s">
+        <v>16</v>
       </c>
       <c r="B507">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C507" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D507" t="s">
         <v>26</v>
       </c>
       <c r="E507">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F507" t="s">
         <v>5</v>
@@ -9622,55 +9622,55 @@
     </row>
     <row r="508" spans="1:6">
       <c r="A508" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B508">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C508" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D508" t="s">
         <v>26</v>
       </c>
       <c r="E508">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F508"/>
     </row>
     <row r="509" spans="1:6">
       <c r="A509" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B509">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D509" t="s">
         <v>26</v>
       </c>
       <c r="E509">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F509"/>
     </row>
     <row r="510" spans="1:6">
       <c r="A510" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B510">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C510" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D510" t="s">
         <v>26</v>
       </c>
       <c r="E510">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F510"/>
     </row>
@@ -9679,153 +9679,153 @@
         <v>9</v>
       </c>
       <c r="B511">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C511" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D511" t="s">
         <v>26</v>
       </c>
       <c r="E511">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F511"/>
     </row>
     <row r="512" spans="1:6">
-      <c r="A512" t="s">
-        <v>9</v>
+      <c r="A512">
+        <v>1</v>
       </c>
       <c r="B512">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C512" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D512" t="s">
         <v>26</v>
       </c>
       <c r="E512">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F512"/>
     </row>
     <row r="513" spans="1:6">
       <c r="A513">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B513">
         <v>20</v>
       </c>
       <c r="C513" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D513" t="s">
         <v>26</v>
       </c>
       <c r="E513">
-        <v>936</v>
-      </c>
-      <c r="F513"/>
+        <v>938</v>
+      </c>
+      <c r="F513" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514">
-        <v>4</v>
+      <c r="A514" t="s">
+        <v>16</v>
       </c>
       <c r="B514">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C514" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D514" t="s">
         <v>26</v>
       </c>
       <c r="E514">
-        <v>938</v>
-      </c>
-      <c r="F514" t="s">
-        <v>5</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="F514"/>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B515">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C515" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D515" t="s">
         <v>26</v>
       </c>
       <c r="E515">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F515"/>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" t="s">
-        <v>24</v>
+      <c r="A516">
+        <v>5</v>
       </c>
       <c r="B516">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C516" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D516" t="s">
         <v>26</v>
       </c>
       <c r="E516">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F516"/>
     </row>
     <row r="517" spans="1:6">
       <c r="A517">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B517">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C517" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D517" t="s">
         <v>26</v>
       </c>
       <c r="E517">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F517"/>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518">
-        <v>4</v>
+      <c r="A518" t="s">
+        <v>11</v>
       </c>
       <c r="B518">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C518" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D518" t="s">
         <v>26</v>
       </c>
       <c r="E518">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F518"/>
     </row>
     <row r="519" spans="1:6">
       <c r="A519" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B519">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C519" t="s">
         <v>20</v>
@@ -9834,16 +9834,16 @@
         <v>26</v>
       </c>
       <c r="E519">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F519"/>
     </row>
     <row r="520" spans="1:6">
       <c r="A520" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B520">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C520" t="s">
         <v>20</v>
@@ -9852,16 +9852,18 @@
         <v>26</v>
       </c>
       <c r="E520">
-        <v>944</v>
-      </c>
-      <c r="F520"/>
+        <v>946</v>
+      </c>
+      <c r="F520" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="521" spans="1:6">
       <c r="A521" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B521">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C521" t="s">
         <v>20</v>
@@ -9870,72 +9872,70 @@
         <v>26</v>
       </c>
       <c r="E521">
-        <v>946</v>
-      </c>
-      <c r="F521" t="s">
-        <v>5</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="F521"/>
     </row>
     <row r="522" spans="1:6">
       <c r="A522" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B522">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C522" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D522" t="s">
         <v>26</v>
       </c>
       <c r="E522">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F522"/>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B523">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C523" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D523" t="s">
         <v>26</v>
       </c>
       <c r="E523">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F523"/>
     </row>
     <row r="524" spans="1:6">
       <c r="A524" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B524">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C524" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D524" t="s">
         <v>26</v>
       </c>
       <c r="E524">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F524"/>
     </row>
     <row r="525" spans="1:6">
       <c r="A525" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B525">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C525" t="s">
         <v>20</v>
@@ -9944,223 +9944,223 @@
         <v>26</v>
       </c>
       <c r="E525">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F525"/>
     </row>
     <row r="526" spans="1:6">
       <c r="A526" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B526">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C526" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D526" t="s">
         <v>26</v>
       </c>
       <c r="E526">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F526"/>
     </row>
     <row r="527" spans="1:6">
       <c r="A527" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C527" t="s">
+        <v>20</v>
+      </c>
+      <c r="D527" t="s">
+        <v>26</v>
+      </c>
+      <c r="E527">
+        <v>953</v>
+      </c>
+      <c r="F527"/>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528">
+        <v>9</v>
+      </c>
+      <c r="B528">
+        <v>21</v>
+      </c>
+      <c r="C528" t="s">
         <v>19</v>
       </c>
-      <c r="D527" t="s">
-        <v>26</v>
-      </c>
-      <c r="E527">
-        <v>952</v>
-      </c>
-      <c r="F527"/>
-    </row>
-    <row r="528" spans="1:6">
-      <c r="A528" t="s">
-        <v>11</v>
-      </c>
-      <c r="B528">
-        <v>2</v>
-      </c>
-      <c r="C528" t="s">
-        <v>20</v>
-      </c>
       <c r="D528" t="s">
         <v>26</v>
       </c>
       <c r="E528">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F528"/>
     </row>
     <row r="529" spans="1:6">
-      <c r="A529">
-        <v>9</v>
+      <c r="A529" t="s">
+        <v>15</v>
       </c>
       <c r="B529">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C529" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D529" t="s">
         <v>26</v>
       </c>
       <c r="E529">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F529"/>
     </row>
     <row r="530" spans="1:6">
-      <c r="A530" t="s">
-        <v>15</v>
+      <c r="A530">
+        <v>4</v>
       </c>
       <c r="B530">
         <v>8</v>
       </c>
       <c r="C530" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D530" t="s">
         <v>26</v>
       </c>
       <c r="E530">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F530"/>
     </row>
     <row r="531" spans="1:6">
-      <c r="A531">
-        <v>4</v>
+      <c r="A531" t="s">
+        <v>24</v>
       </c>
       <c r="B531">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C531" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D531" t="s">
         <v>26</v>
       </c>
       <c r="E531">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F531"/>
     </row>
     <row r="532" spans="1:6">
       <c r="A532" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B532">
+        <v>11</v>
+      </c>
+      <c r="C532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" t="s">
+        <v>26</v>
+      </c>
+      <c r="E532">
+        <v>958</v>
+      </c>
+      <c r="F532"/>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533">
+        <v>10</v>
+      </c>
+      <c r="B533">
         <v>18</v>
       </c>
-      <c r="C532" t="s">
-        <v>20</v>
-      </c>
-      <c r="D532" t="s">
-        <v>26</v>
-      </c>
-      <c r="E532">
-        <v>957</v>
-      </c>
-      <c r="F532"/>
-    </row>
-    <row r="533" spans="1:6">
-      <c r="A533" t="s">
+      <c r="C533" t="s">
+        <v>21</v>
+      </c>
+      <c r="D533" t="s">
+        <v>26</v>
+      </c>
+      <c r="E533">
+        <v>959</v>
+      </c>
+      <c r="F533"/>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" t="s">
         <v>11</v>
       </c>
-      <c r="B533">
-        <v>11</v>
-      </c>
-      <c r="C533" t="s">
-        <v>10</v>
-      </c>
-      <c r="D533" t="s">
-        <v>26</v>
-      </c>
-      <c r="E533">
-        <v>958</v>
-      </c>
-      <c r="F533"/>
-    </row>
-    <row r="534" spans="1:6">
-      <c r="A534">
-        <v>10</v>
-      </c>
       <c r="B534">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C534" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D534" t="s">
         <v>26</v>
       </c>
       <c r="E534">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F534"/>
     </row>
     <row r="535" spans="1:6">
       <c r="A535" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B535">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C535" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D535" t="s">
         <v>26</v>
       </c>
       <c r="E535">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F535"/>
     </row>
     <row r="536" spans="1:6">
       <c r="A536" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B536">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C536" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D536" t="s">
         <v>26</v>
       </c>
       <c r="E536">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F536"/>
     </row>
     <row r="537" spans="1:6">
       <c r="A537" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B537">
         <v>18</v>
       </c>
       <c r="C537" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D537" t="s">
         <v>26</v>
       </c>
       <c r="E537">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F537"/>
     </row>
@@ -10169,7 +10169,7 @@
         <v>11</v>
       </c>
       <c r="B538">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C538" t="s">
         <v>20</v>
@@ -10178,16 +10178,18 @@
         <v>26</v>
       </c>
       <c r="E538">
-        <v>963</v>
-      </c>
-      <c r="F538"/>
+        <v>965</v>
+      </c>
+      <c r="F538" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="539" spans="1:6">
       <c r="A539" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B539">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C539" t="s">
         <v>20</v>
@@ -10196,7 +10198,7 @@
         <v>26</v>
       </c>
       <c r="E539">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F539" t="s">
         <v>5</v>
@@ -10204,10 +10206,10 @@
     </row>
     <row r="540" spans="1:6">
       <c r="A540" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B540">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C540" t="s">
         <v>20</v>
@@ -10216,7 +10218,7 @@
         <v>26</v>
       </c>
       <c r="E540">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F540" t="s">
         <v>5</v>
@@ -10224,131 +10226,131 @@
     </row>
     <row r="541" spans="1:6">
       <c r="A541" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B541">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C541" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D541" t="s">
         <v>26</v>
       </c>
       <c r="E541">
-        <v>969</v>
-      </c>
-      <c r="F541" t="s">
-        <v>5</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="F541"/>
     </row>
     <row r="542" spans="1:6">
       <c r="A542" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B542">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C542" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D542" t="s">
         <v>26</v>
       </c>
       <c r="E542">
-        <v>970</v>
-      </c>
-      <c r="F542"/>
+        <v>972</v>
+      </c>
+      <c r="F542" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="543" spans="1:6">
       <c r="A543" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B543">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C543" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D543" t="s">
         <v>26</v>
       </c>
       <c r="E543">
-        <v>972</v>
-      </c>
-      <c r="F543" t="s">
-        <v>5</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="F543"/>
     </row>
     <row r="544" spans="1:6">
       <c r="A544" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B544">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C544" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D544" t="s">
         <v>26</v>
       </c>
       <c r="E544">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F544"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B545">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C545" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D545" t="s">
         <v>26</v>
       </c>
       <c r="E545">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F545"/>
     </row>
     <row r="546" spans="1:6">
       <c r="A546" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B546">
+        <v>5</v>
+      </c>
+      <c r="C546" t="s">
         <v>14</v>
       </c>
-      <c r="C546" t="s">
-        <v>6</v>
-      </c>
       <c r="D546" t="s">
         <v>26</v>
       </c>
       <c r="E546">
-        <v>975</v>
-      </c>
-      <c r="F546"/>
+        <v>977</v>
+      </c>
+      <c r="F546" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="547" spans="1:6">
       <c r="A547" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C547" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D547" t="s">
         <v>26</v>
       </c>
       <c r="E547">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="F547" t="s">
         <v>5</v>
@@ -10356,30 +10358,28 @@
     </row>
     <row r="548" spans="1:6">
       <c r="A548" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B548">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C548" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D548" t="s">
         <v>26</v>
       </c>
       <c r="E548">
-        <v>980</v>
-      </c>
-      <c r="F548" t="s">
-        <v>5</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="F548"/>
     </row>
     <row r="549" spans="1:6">
       <c r="A549" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B549">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C549" t="s">
         <v>10</v>
@@ -10388,25 +10388,25 @@
         <v>26</v>
       </c>
       <c r="E549">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F549"/>
     </row>
     <row r="550" spans="1:6">
       <c r="A550" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B550">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C550" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D550" t="s">
         <v>26</v>
       </c>
       <c r="E550">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F550"/>
     </row>
@@ -10415,7 +10415,7 @@
         <v>22</v>
       </c>
       <c r="B551">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C551" t="s">
         <v>20</v>
@@ -10424,45 +10424,45 @@
         <v>26</v>
       </c>
       <c r="E551">
-        <v>983</v>
-      </c>
-      <c r="F551"/>
+        <v>985</v>
+      </c>
+      <c r="F551" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="552" spans="1:6">
       <c r="A552" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B552">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C552" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D552" t="s">
         <v>26</v>
       </c>
       <c r="E552">
-        <v>985</v>
-      </c>
-      <c r="F552" t="s">
-        <v>5</v>
-      </c>
+        <v>986</v>
+      </c>
+      <c r="F552"/>
     </row>
     <row r="553" spans="1:6">
       <c r="A553" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B553">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C553" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D553" t="s">
         <v>26</v>
       </c>
       <c r="E553">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F553"/>
     </row>
@@ -10471,100 +10471,102 @@
         <v>15</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C554" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D554" t="s">
         <v>26</v>
       </c>
       <c r="E554">
-        <v>987</v>
-      </c>
-      <c r="F554"/>
+        <v>989</v>
+      </c>
+      <c r="F554" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="555" spans="1:6">
       <c r="A555" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B555">
+        <v>19</v>
+      </c>
+      <c r="C555" t="s">
+        <v>19</v>
+      </c>
+      <c r="D555" t="s">
+        <v>26</v>
+      </c>
+      <c r="E555">
+        <v>990</v>
+      </c>
+      <c r="F555"/>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556">
+        <v>9</v>
+      </c>
+      <c r="B556">
+        <v>3</v>
+      </c>
+      <c r="C556" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556" t="s">
+        <v>26</v>
+      </c>
+      <c r="E556">
+        <v>991</v>
+      </c>
+      <c r="F556"/>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" t="s">
+        <v>9</v>
+      </c>
+      <c r="B557">
         <v>16</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C557" t="s">
         <v>14</v>
       </c>
-      <c r="D555" t="s">
-        <v>26</v>
-      </c>
-      <c r="E555">
-        <v>989</v>
-      </c>
-      <c r="F555" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6">
-      <c r="A556" t="s">
-        <v>18</v>
-      </c>
-      <c r="B556">
-        <v>19</v>
-      </c>
-      <c r="C556" t="s">
-        <v>19</v>
-      </c>
-      <c r="D556" t="s">
-        <v>26</v>
-      </c>
-      <c r="E556">
-        <v>990</v>
-      </c>
-      <c r="F556"/>
-    </row>
-    <row r="557" spans="1:6">
-      <c r="A557">
-        <v>9</v>
-      </c>
-      <c r="B557">
-        <v>3</v>
-      </c>
-      <c r="C557" t="s">
-        <v>6</v>
-      </c>
       <c r="D557" t="s">
         <v>26</v>
       </c>
       <c r="E557">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F557"/>
     </row>
     <row r="558" spans="1:6">
       <c r="A558" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B558">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D558" t="s">
+        <v>26</v>
+      </c>
+      <c r="E558">
+        <v>994</v>
+      </c>
+      <c r="F558" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559">
+        <v>4</v>
+      </c>
+      <c r="B559">
         <v>14</v>
       </c>
-      <c r="D558" t="s">
-        <v>26</v>
-      </c>
-      <c r="E558">
-        <v>992</v>
-      </c>
-      <c r="F558"/>
-    </row>
-    <row r="559" spans="1:6">
-      <c r="A559" t="s">
-        <v>11</v>
-      </c>
-      <c r="B559">
-        <v>18</v>
-      </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
@@ -10572,101 +10574,81 @@
         <v>26</v>
       </c>
       <c r="E559">
-        <v>994</v>
-      </c>
-      <c r="F559" t="s">
-        <v>5</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="F559"/>
     </row>
     <row r="560" spans="1:6">
       <c r="A560">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B560">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C560" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D560" t="s">
         <v>26</v>
       </c>
       <c r="E560">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F560"/>
     </row>
     <row r="561" spans="1:6">
-      <c r="A561">
-        <v>10</v>
+      <c r="A561" t="s">
+        <v>13</v>
       </c>
       <c r="B561">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C561" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D561" t="s">
         <v>26</v>
       </c>
       <c r="E561">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F561"/>
     </row>
     <row r="562" spans="1:6">
-      <c r="A562" t="s">
-        <v>13</v>
+      <c r="A562">
+        <v>10</v>
       </c>
       <c r="B562">
+        <v>20</v>
+      </c>
+      <c r="C562" t="s">
+        <v>6</v>
+      </c>
+      <c r="D562" t="s">
+        <v>26</v>
+      </c>
+      <c r="E562">
+        <v>998</v>
+      </c>
+      <c r="F562"/>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" t="s">
+        <v>23</v>
+      </c>
+      <c r="B563">
         <v>9</v>
       </c>
-      <c r="C562" t="s">
-        <v>8</v>
-      </c>
-      <c r="D562" t="s">
-        <v>26</v>
-      </c>
-      <c r="E562">
-        <v>997</v>
-      </c>
-      <c r="F562"/>
-    </row>
-    <row r="563" spans="1:6">
-      <c r="A563">
-        <v>10</v>
-      </c>
-      <c r="B563">
-        <v>20</v>
-      </c>
       <c r="C563" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D563" t="s">
         <v>26</v>
       </c>
       <c r="E563">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F563"/>
-    </row>
-    <row r="564" spans="1:6">
-      <c r="A564" t="s">
-        <v>23</v>
-      </c>
-      <c r="B564">
-        <v>9</v>
-      </c>
-      <c r="C564" t="s">
-        <v>20</v>
-      </c>
-      <c r="D564" t="s">
-        <v>26</v>
-      </c>
-      <c r="E564">
-        <v>999</v>
-      </c>
-      <c r="F564"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/app_output/parking_lot_spaces.xlsx
+++ b/app_output/parking_lot_spaces.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3001">
   <si>
     <t>Building</t>
   </si>
@@ -213,7 +213,7 @@
     <t>JOHN T.</t>
   </si>
   <si>
-    <t>wooddragon4864@gmail.com</t>
+    <t>JTS4864@GMAIL.COM</t>
   </si>
   <si>
     <t>2018-04-11 00:00:00</t>
@@ -429,7 +429,7 @@
     <t>STEPHEN</t>
   </si>
   <si>
-    <t>STEVENMSOME@AOL.COM</t>
+    <t>stevemsome@aol.com</t>
   </si>
   <si>
     <t>ELIZABETH</t>
@@ -871,7 +871,7 @@
     <t>KATHLEEN J.</t>
   </si>
   <si>
-    <t>kathycahill340@aol.com</t>
+    <t>KATHYKINDNESS@GMAIL.COM</t>
   </si>
   <si>
     <t>6A</t>
@@ -929,7 +929,7 @@
     <t>HEATHER</t>
   </si>
   <si>
-    <t>HEATHERGNYC@YAHOO.COM</t>
+    <t>hgerchberg@yahoo.com</t>
   </si>
   <si>
     <t>2018-01-29 00:00:00</t>
@@ -1022,7 +1022,7 @@
     <t>YAFIT</t>
   </si>
   <si>
-    <t>NYCTOD@GMAIL.COM</t>
+    <t>aoknatalie@aol.com</t>
   </si>
   <si>
     <t>2017-03-22 00:00:00</t>
@@ -1956,7 +1956,7 @@
     <t>LORRIE</t>
   </si>
   <si>
-    <t>mza442@msn.com</t>
+    <t>lalatzas@hotmail.com</t>
   </si>
   <si>
     <t>2017-02-03 00:00:00</t>
@@ -2031,7 +2031,7 @@
     <t>MARIA JOCELYN B</t>
   </si>
   <si>
-    <t>ochoajocelyn@gmail.com</t>
+    <t>MJBERNAL@YAHOO.COM</t>
   </si>
   <si>
     <t>2017-05-19 00:00:00</t>
@@ -2300,7 +2300,7 @@
     <t>FRAN</t>
   </si>
   <si>
-    <t>frantransition@aol.com</t>
+    <t>frannyonthego@aol.com</t>
   </si>
   <si>
     <t>2018-02-17 00:00:00</t>
@@ -2877,7 +2877,7 @@
     <t>JENNIFER</t>
   </si>
   <si>
-    <t>jooniperm@gmail.com</t>
+    <t>jooniperm@verizon.net</t>
   </si>
   <si>
     <t>2018-08-13 00:00:00</t>
@@ -3051,7 +3051,7 @@
     <t>LAURA J.</t>
   </si>
   <si>
-    <t>ishrprentz@aol.com</t>
+    <t>lshprentz@erols.com</t>
   </si>
   <si>
     <t>2017-09-28 00:00:00</t>
@@ -3066,7 +3066,7 @@
     <t>JARUS</t>
   </si>
   <si>
-    <t>jarusa@un.org</t>
+    <t>perkunasjr@gmail.com</t>
   </si>
   <si>
     <t>2017-09-09 00:00:00</t>
@@ -3337,7 +3337,7 @@
     <t>MCGINNESS</t>
   </si>
   <si>
-    <t>JOHNNYC56@GMAIL.COM</t>
+    <t>johnnye56@gmail.com</t>
   </si>
   <si>
     <t>2017-05-30 00:00:00</t>
@@ -3778,7 +3778,7 @@
     <t>PAUL S.</t>
   </si>
   <si>
-    <t>paulstu@gmail.com</t>
+    <t>paulscher51@gmail.com</t>
   </si>
   <si>
     <t>2017-03-31 00:00:00</t>
@@ -3924,7 +3924,7 @@
     <t>NINA</t>
   </si>
   <si>
-    <t>nina4nyc@gmail.com</t>
+    <t>nnikolay@aol.com</t>
   </si>
   <si>
     <t>NIKOLAY</t>
@@ -4045,7 +4045,7 @@
     <t>PNINA</t>
   </si>
   <si>
-    <t>pninamichelson@hotmail.com</t>
+    <t>t0075@hotmail.com</t>
   </si>
   <si>
     <t>STEMPFELET</t>
@@ -4105,7 +4105,7 @@
     <t>LINDA</t>
   </si>
   <si>
-    <t>2penn@excite.com</t>
+    <t>LPSQUILL@GMAIL.COM</t>
   </si>
   <si>
     <t>2018-02-23 00:00:00</t>
@@ -4267,7 +4267,7 @@
     <t>GEOFFREY</t>
   </si>
   <si>
-    <t>juliarothenberg@aol.com</t>
+    <t>berlinerantiques@aol.com</t>
   </si>
   <si>
     <t>ROTHENBERG</t>
@@ -4318,7 +4318,7 @@
     <t>JUSTINE</t>
   </si>
   <si>
-    <t>STINEOR@VERIZON.NET</t>
+    <t>rbeutler@yahoo.com</t>
   </si>
   <si>
     <t>2017-02-23 00:00:00</t>
@@ -4456,7 +4456,7 @@
     <t>MANINT</t>
   </si>
   <si>
-    <t>mkessopa@gmail.com</t>
+    <t>mkessopa1@gmail.com</t>
   </si>
   <si>
     <t>2000 TAN TOYOTA CAMRY</t>
@@ -4471,7 +4471,7 @@
     <t>SANDRA</t>
   </si>
   <si>
-    <t>ssw8400@rcn.com</t>
+    <t>ssw8400@aol.com</t>
   </si>
   <si>
     <t>2018-04-01 00:00:00</t>
@@ -4531,7 +4531,7 @@
     <t>RUSSO</t>
   </si>
   <si>
-    <t>RRUSSOCPA@EARTHLINK.NET</t>
+    <t>cpamate@earthlink.net</t>
   </si>
   <si>
     <t>2017-12-17 00:00:00</t>
@@ -4690,7 +4690,7 @@
     <t>JOHANNA</t>
   </si>
   <si>
-    <t>GDDEUSHPLUFKA1@GMAIL.COM</t>
+    <t>gorelickj@si.edu</t>
   </si>
   <si>
     <t>2016-09-08 00:00:00</t>
@@ -4948,7 +4948,7 @@
     <t>HARRIET</t>
   </si>
   <si>
-    <t>hhesq@me.com</t>
+    <t>HHESZ@ME.COM</t>
   </si>
   <si>
     <t>2004 GREY TOYOTA CORROLLA</t>
@@ -5104,7 +5104,7 @@
     <t>ESJ8108</t>
   </si>
   <si>
-    <t>babarina@hotmail.com</t>
+    <t>bararina@hotmail.com</t>
   </si>
   <si>
     <t>2018-05-23 00:00:00</t>
@@ -5287,7 +5287,7 @@
     <t>SOTO</t>
   </si>
   <si>
-    <t>MSOTO@STELIZNYC.ORG</t>
+    <t>MARY50453@AOL.COM</t>
   </si>
   <si>
     <t>2006 BLUE BUICK</t>
@@ -5555,7 +5555,7 @@
     <t>DANA</t>
   </si>
   <si>
-    <t>solanos@rcn.com</t>
+    <t>dana@apricotbrown.com</t>
   </si>
   <si>
     <t>2017-01-13 00:00:00</t>
@@ -6047,7 +6047,7 @@
     <t>BOHUSLAV</t>
   </si>
   <si>
-    <t>kmotras@gmail.com</t>
+    <t>bkmotras@nyc.rr.com</t>
   </si>
   <si>
     <t>MILLY</t>
@@ -6310,7 +6310,7 @@
     <t>ZLYSSA.LEAL@NYU.EDU</t>
   </si>
   <si>
-    <t>all8439@nyu.edu</t>
+    <t>WASL49@GMAIL.COM</t>
   </si>
   <si>
     <t>2018-08-01 00:00:00</t>
@@ -6409,7 +6409,7 @@
     <t>KEVORK G.</t>
   </si>
   <si>
-    <t>terasan74@aol.com</t>
+    <t>nairiesayan@gmail.com</t>
   </si>
   <si>
     <t>ANI</t>
@@ -6590,7 +6590,7 @@
     <t>CLAMPITT</t>
   </si>
   <si>
-    <t>lisa@clubviplife.com</t>
+    <t>LISACLAMPITT@GMAIL.COM</t>
   </si>
   <si>
     <t>Burbrink</t>
@@ -6699,7 +6699,7 @@
     <t>COSTAGLIOLA</t>
   </si>
   <si>
-    <t>tcosta@printint.com</t>
+    <t>MTM280@GMAIL.COM</t>
   </si>
   <si>
     <t>ENU8386</t>
@@ -7301,7 +7301,7 @@
     <t>ARONGINO</t>
   </si>
   <si>
-    <t>larongino@gmail.com</t>
+    <t>lza@me.com</t>
   </si>
   <si>
     <t>2017-05-04 00:00:00</t>
@@ -7436,7 +7436,7 @@
     <t>FATIMA</t>
   </si>
   <si>
-    <t>fatimad@att.net</t>
+    <t>FATIMA@ATT.NET</t>
   </si>
   <si>
     <t>2017-07-27 00:00:00</t>
@@ -7710,7 +7710,7 @@
     <t>IVAN</t>
   </si>
   <si>
-    <t>eyevan66@yahoo.com</t>
+    <t>EYEVANLEG@YAHOO.COM</t>
   </si>
   <si>
     <t>DYANTHE</t>
@@ -7803,7 +7803,7 @@
     <t>ZMOIRA</t>
   </si>
   <si>
-    <t>MZMOIRA@DHS.NYC.GOV</t>
+    <t>MARTA.ZMOIRA@GMAIL.COM</t>
   </si>
   <si>
     <t>GVN9655</t>
@@ -7843,7 +7843,7 @@
     <t>Steven</t>
   </si>
   <si>
-    <t>stevensantosjr@gmail.com</t>
+    <t>stevsan@aol.com</t>
   </si>
   <si>
     <t>GSD7934</t>
@@ -7885,7 +7885,7 @@
     <t>ROTH</t>
   </si>
   <si>
-    <t>jro345nyc@aol.com</t>
+    <t>JOAN2315@AOL.COM</t>
   </si>
   <si>
     <t>2017-05-17 00:00:00</t>
@@ -8011,7 +8011,7 @@
     <t>WILLIAM L.</t>
   </si>
   <si>
-    <t>yingandyang@yahoo.com</t>
+    <t>yingand_yang@yahoo.com</t>
   </si>
   <si>
     <t>2018-03-30 00:00:00</t>
@@ -8085,7 +8085,7 @@
     <t>MONA M.</t>
   </si>
   <si>
-    <t>mg@analyze.com</t>
+    <t>mona@analyze.com</t>
   </si>
   <si>
     <t>2017-11-04 00:00:00</t>
@@ -8179,6 +8179,9 @@
     <t>NIKOS</t>
   </si>
   <si>
+    <t>av1199@yahoo.com</t>
+  </si>
+  <si>
     <t>2016-11-01 00:00:00</t>
   </si>
   <si>
@@ -8584,7 +8587,7 @@
     <t>HAMMERSTEIN</t>
   </si>
   <si>
-    <t>brian@hammerstein.net</t>
+    <t>brian.hammerstein@gmail.com</t>
   </si>
   <si>
     <t>2017-04-02 00:00:00</t>
@@ -8785,7 +8788,7 @@
     <t>SARALYN</t>
   </si>
   <si>
-    <t>SESH88@RCN.COM</t>
+    <t>sesh88@aol.com</t>
   </si>
   <si>
     <t>2015-05-21 00:00:00</t>
@@ -8803,7 +8806,7 @@
     <t>ROSA I.</t>
   </si>
   <si>
-    <t>RYOUREADI@GMAIL.COM</t>
+    <t>romancedemialma@hotmail.com</t>
   </si>
   <si>
     <t>1999 BLUE MAZDA</t>
@@ -9041,7 +9044,7 @@
     <t>CHRYSOULA</t>
   </si>
   <si>
-    <t>chrysoula1@aol.com</t>
+    <t>CHRYSOULA@STARLIGHTRUNNER.COM</t>
   </si>
   <si>
     <t>2010 BLUE HONDA SUBN</t>
@@ -9443,7 +9446,7 @@
     <col min="17" max="17" width="22.851563" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="29.278564" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="35.2771" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="22.851563" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="1.142578" bestFit="true" customWidth="true" style="0"/>
@@ -9541,7 +9544,7 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
@@ -9589,7 +9592,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
@@ -9641,7 +9644,7 @@
         <v>38</v>
       </c>
       <c r="H4">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -9693,7 +9696,7 @@
         <v>46</v>
       </c>
       <c r="H5">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
@@ -9745,7 +9748,7 @@
         <v>54</v>
       </c>
       <c r="H6">
-        <v>-78</v>
+        <v>-80</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -9795,7 +9798,7 @@
         <v>60</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
@@ -9843,7 +9846,7 @@
         <v>66</v>
       </c>
       <c r="H8">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="s">
@@ -9893,7 +9896,7 @@
         <v>73</v>
       </c>
       <c r="H9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="s">
@@ -9943,7 +9946,7 @@
         <v>79</v>
       </c>
       <c r="H10">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
@@ -9997,7 +10000,7 @@
         <v>85</v>
       </c>
       <c r="H11">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
@@ -10049,7 +10052,7 @@
         <v>92</v>
       </c>
       <c r="H12">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
@@ -10109,7 +10112,7 @@
         <v>101</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
@@ -10159,7 +10162,7 @@
         <v>107</v>
       </c>
       <c r="H14">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
@@ -10211,7 +10214,7 @@
         <v>114</v>
       </c>
       <c r="H15">
-        <v>-128</v>
+        <v>-130</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -10265,7 +10268,7 @@
         <v>120</v>
       </c>
       <c r="H16">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
@@ -10323,7 +10326,7 @@
         <v>127</v>
       </c>
       <c r="H17">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
@@ -10373,7 +10376,7 @@
         <v>132</v>
       </c>
       <c r="H18">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
@@ -10433,7 +10436,7 @@
         <v>141</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>21</v>
@@ -10483,7 +10486,7 @@
         <v>147</v>
       </c>
       <c r="H20">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
@@ -10541,7 +10544,7 @@
         <v>154</v>
       </c>
       <c r="H21">
-        <v>-77</v>
+        <v>-79</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -10595,7 +10598,7 @@
         <v>160</v>
       </c>
       <c r="H22">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
@@ -10647,7 +10650,7 @@
         <v>167</v>
       </c>
       <c r="H23">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
@@ -10699,7 +10702,7 @@
         <v>173</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
@@ -10757,7 +10760,7 @@
         <v>180</v>
       </c>
       <c r="H25">
-        <v>-158</v>
+        <v>-160</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -10811,7 +10814,7 @@
         <v>186</v>
       </c>
       <c r="H26">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
@@ -10869,7 +10872,7 @@
         <v>194</v>
       </c>
       <c r="H27">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
@@ -10931,7 +10934,7 @@
         <v>202</v>
       </c>
       <c r="H28">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
@@ -10987,7 +10990,7 @@
         <v>209</v>
       </c>
       <c r="H29">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
@@ -11041,7 +11044,7 @@
         <v>215</v>
       </c>
       <c r="H30">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
@@ -11097,7 +11100,7 @@
         <v>222</v>
       </c>
       <c r="H31">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -11151,7 +11154,7 @@
         <v>228</v>
       </c>
       <c r="H32">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
@@ -11211,7 +11214,7 @@
         <v>236</v>
       </c>
       <c r="H33">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="s">
@@ -11263,7 +11266,7 @@
         <v>242</v>
       </c>
       <c r="H34">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="s">
@@ -11315,7 +11318,7 @@
         <v>248</v>
       </c>
       <c r="H35">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I35"/>
       <c r="J35" t="s">
@@ -11367,7 +11370,7 @@
         <v>254</v>
       </c>
       <c r="H36">
-        <v>-101</v>
+        <v>-103</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -11431,7 +11434,7 @@
         <v>260</v>
       </c>
       <c r="H37">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -11483,7 +11486,7 @@
         <v>265</v>
       </c>
       <c r="H38">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="s">
@@ -11543,7 +11546,7 @@
         <v>273</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -11597,7 +11600,7 @@
         <v>279</v>
       </c>
       <c r="H40">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
@@ -11649,7 +11652,7 @@
         <v>286</v>
       </c>
       <c r="H41">
-        <v>-93</v>
+        <v>-95</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -11709,7 +11712,7 @@
         <v>293</v>
       </c>
       <c r="H42">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I42"/>
       <c r="J42" t="s">
@@ -11757,7 +11760,7 @@
         <v>298</v>
       </c>
       <c r="H43">
-        <v>-97</v>
+        <v>-99</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -11813,7 +11816,7 @@
         <v>304</v>
       </c>
       <c r="H44">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
@@ -11873,7 +11876,7 @@
         <v>313</v>
       </c>
       <c r="H45">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I45"/>
       <c r="J45" t="s">
@@ -11935,7 +11938,7 @@
         <v>321</v>
       </c>
       <c r="H46">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I46"/>
       <c r="J46" t="s">
@@ -11995,7 +11998,7 @@
         <v>329</v>
       </c>
       <c r="H47">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="s">
@@ -12049,7 +12052,7 @@
         <v>335</v>
       </c>
       <c r="H48">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I48"/>
       <c r="J48" t="s">
@@ -12107,7 +12110,7 @@
         <v>343</v>
       </c>
       <c r="H49">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I49"/>
       <c r="J49" t="s">
@@ -12159,7 +12162,7 @@
         <v>349</v>
       </c>
       <c r="H50">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -12221,7 +12224,7 @@
         <v>357</v>
       </c>
       <c r="H51">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I51"/>
       <c r="J51" t="s">
@@ -12279,7 +12282,7 @@
         <v>365</v>
       </c>
       <c r="H52">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I52"/>
       <c r="J52" t="s">
@@ -12331,7 +12334,7 @@
         <v>371</v>
       </c>
       <c r="H53">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
@@ -12391,7 +12394,7 @@
         <v>378</v>
       </c>
       <c r="H54">
-        <v>-224</v>
+        <v>-226</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -12449,7 +12452,7 @@
         <v>384</v>
       </c>
       <c r="H55">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I55"/>
       <c r="J55" t="s">
@@ -12509,7 +12512,7 @@
         <v>392</v>
       </c>
       <c r="H56">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I56"/>
       <c r="J56" t="s">
@@ -12561,7 +12564,7 @@
         <v>397</v>
       </c>
       <c r="H57">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="s">
@@ -12609,7 +12612,7 @@
         <v>402</v>
       </c>
       <c r="H58">
-        <v>-216</v>
+        <v>-218</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12671,7 +12674,7 @@
         <v>357</v>
       </c>
       <c r="H59">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I59"/>
       <c r="J59" t="s">
@@ -12721,7 +12724,7 @@
         <v>414</v>
       </c>
       <c r="H60">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I60"/>
       <c r="J60" t="s">
@@ -12779,7 +12782,7 @@
         <v>421</v>
       </c>
       <c r="H61">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I61"/>
       <c r="J61" t="s">
@@ -12835,7 +12838,7 @@
         <v>426</v>
       </c>
       <c r="H62">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I62"/>
       <c r="J62" t="s">
@@ -12887,7 +12890,7 @@
         <v>432</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>10</v>
@@ -12947,7 +12950,7 @@
         <v>440</v>
       </c>
       <c r="H64">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I64"/>
       <c r="J64" t="s">
@@ -12999,7 +13002,7 @@
         <v>445</v>
       </c>
       <c r="H65">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -13055,7 +13058,7 @@
         <v>450</v>
       </c>
       <c r="H66">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
@@ -13113,7 +13116,7 @@
         <v>321</v>
       </c>
       <c r="H67">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I67"/>
       <c r="J67" t="s">
@@ -13165,7 +13168,7 @@
         <v>463</v>
       </c>
       <c r="H68">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I68"/>
       <c r="J68" t="s">
@@ -13217,7 +13220,7 @@
         <v>469</v>
       </c>
       <c r="H69">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I69"/>
       <c r="J69" t="s">
@@ -13269,7 +13272,7 @@
         <v>475</v>
       </c>
       <c r="H70">
-        <v>-59</v>
+        <v>-61</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -13329,7 +13332,7 @@
         <v>482</v>
       </c>
       <c r="H71">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I71"/>
       <c r="J71" t="s">
@@ -13391,7 +13394,7 @@
         <v>490</v>
       </c>
       <c r="H72">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I72"/>
       <c r="J72" t="s">
@@ -13451,7 +13454,7 @@
         <v>498</v>
       </c>
       <c r="H73">
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -13505,7 +13508,7 @@
         <v>504</v>
       </c>
       <c r="H74">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I74"/>
       <c r="J74" t="s">
@@ -13555,7 +13558,7 @@
         <v>510</v>
       </c>
       <c r="H75">
-        <v>-88</v>
+        <v>-90</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -13615,7 +13618,7 @@
         <v>517</v>
       </c>
       <c r="H76">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -13675,7 +13678,7 @@
         <v>524</v>
       </c>
       <c r="H77">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I77"/>
       <c r="J77" t="s">
@@ -13735,7 +13738,7 @@
         <v>531</v>
       </c>
       <c r="H78">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I78"/>
       <c r="J78" t="s">
@@ -13787,7 +13790,7 @@
         <v>536</v>
       </c>
       <c r="H79">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I79"/>
       <c r="J79" t="s">
@@ -13839,7 +13842,7 @@
         <v>542</v>
       </c>
       <c r="H80">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -13891,7 +13894,7 @@
         <v>547</v>
       </c>
       <c r="H81">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I81"/>
       <c r="J81" t="s">
@@ -13945,7 +13948,7 @@
         <v>552</v>
       </c>
       <c r="H82">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
@@ -14005,7 +14008,7 @@
         <v>561</v>
       </c>
       <c r="H83">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I83"/>
       <c r="J83" t="s">
@@ -14057,7 +14060,7 @@
         <v>566</v>
       </c>
       <c r="H84">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I84"/>
       <c r="J84" t="s">
@@ -14109,7 +14112,7 @@
         <v>286</v>
       </c>
       <c r="H85">
-        <v>-93</v>
+        <v>-95</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -14163,7 +14166,7 @@
         <v>576</v>
       </c>
       <c r="H86">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I86"/>
       <c r="J86" t="s">
@@ -14215,7 +14218,7 @@
         <v>582</v>
       </c>
       <c r="H87">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I87"/>
       <c r="J87" t="s">
@@ -14267,7 +14270,7 @@
         <v>588</v>
       </c>
       <c r="H88">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I88"/>
       <c r="J88" t="s">
@@ -14327,7 +14330,7 @@
         <v>595</v>
       </c>
       <c r="H89">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I89"/>
       <c r="J89" t="s">
@@ -14375,7 +14378,7 @@
         <v>600</v>
       </c>
       <c r="H90">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I90"/>
       <c r="J90" t="s">
@@ -14435,7 +14438,7 @@
         <v>608</v>
       </c>
       <c r="H91">
-        <v>-89</v>
+        <v>-91</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -14495,7 +14498,7 @@
         <v>614</v>
       </c>
       <c r="H92">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -14559,7 +14562,7 @@
         <v>621</v>
       </c>
       <c r="H93">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I93"/>
       <c r="J93" t="s">
@@ -14609,7 +14612,7 @@
         <v>627</v>
       </c>
       <c r="H94">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I94"/>
       <c r="J94" t="s">
@@ -14667,7 +14670,7 @@
         <v>633</v>
       </c>
       <c r="H95">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I95"/>
       <c r="J95" t="s">
@@ -14719,7 +14722,7 @@
         <v>638</v>
       </c>
       <c r="H96">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I96"/>
       <c r="J96" t="s">
@@ -14773,7 +14776,7 @@
         <v>644</v>
       </c>
       <c r="H97">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I97"/>
       <c r="J97" t="s">
@@ -14833,7 +14836,7 @@
         <v>652</v>
       </c>
       <c r="H98">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I98"/>
       <c r="J98" t="s">
@@ -14885,7 +14888,7 @@
         <v>547</v>
       </c>
       <c r="H99">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I99"/>
       <c r="J99" t="s">
@@ -14943,7 +14946,7 @@
         <v>663</v>
       </c>
       <c r="H100">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I100">
         <v>21</v>
@@ -14997,7 +15000,7 @@
         <v>669</v>
       </c>
       <c r="H101">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101"/>
       <c r="J101" t="s">
@@ -15055,7 +15058,7 @@
         <v>677</v>
       </c>
       <c r="H102">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I102"/>
       <c r="J102" t="s">
@@ -15115,7 +15118,7 @@
         <v>685</v>
       </c>
       <c r="H103">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I103"/>
       <c r="J103" t="s">
@@ -15175,7 +15178,7 @@
         <v>691</v>
       </c>
       <c r="H104">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I104"/>
       <c r="J104" t="s">
@@ -15227,7 +15230,7 @@
         <v>697</v>
       </c>
       <c r="H105">
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -15281,7 +15284,7 @@
         <v>703</v>
       </c>
       <c r="H106">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I106"/>
       <c r="J106" t="s">
@@ -15333,7 +15336,7 @@
         <v>709</v>
       </c>
       <c r="H107">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I107"/>
       <c r="J107" t="s">
@@ -15391,7 +15394,7 @@
         <v>717</v>
       </c>
       <c r="H108">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I108"/>
       <c r="J108" t="s">
@@ -15451,7 +15454,7 @@
         <v>724</v>
       </c>
       <c r="H109">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I109"/>
       <c r="J109" t="s">
@@ -15511,7 +15514,7 @@
         <v>731</v>
       </c>
       <c r="H110">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I110"/>
       <c r="J110" t="s">
@@ -15571,7 +15574,7 @@
         <v>739</v>
       </c>
       <c r="H111">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I111"/>
       <c r="J111" t="s">
@@ -15623,7 +15626,7 @@
         <v>745</v>
       </c>
       <c r="H112">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I112"/>
       <c r="J112" t="s">
@@ -15685,7 +15688,7 @@
         <v>209</v>
       </c>
       <c r="H113">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I113"/>
       <c r="J113" t="s">
@@ -15737,7 +15740,7 @@
         <v>758</v>
       </c>
       <c r="H114">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I114"/>
       <c r="J114" t="s">
@@ -15789,7 +15792,7 @@
         <v>764</v>
       </c>
       <c r="H115">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -15851,7 +15854,7 @@
         <v>773</v>
       </c>
       <c r="H116">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I116"/>
       <c r="J116" t="s">
@@ -15903,7 +15906,7 @@
         <v>779</v>
       </c>
       <c r="H117">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I117"/>
       <c r="J117" t="s">
@@ -15951,7 +15954,7 @@
         <v>785</v>
       </c>
       <c r="H118">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I118"/>
       <c r="J118" t="s">
@@ -16011,7 +16014,7 @@
         <v>745</v>
       </c>
       <c r="H119">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I119"/>
       <c r="J119" t="s">
@@ -16061,7 +16064,7 @@
         <v>154</v>
       </c>
       <c r="H120">
-        <v>-77</v>
+        <v>-79</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -16111,7 +16114,7 @@
         <v>803</v>
       </c>
       <c r="H121">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I121"/>
       <c r="J121" t="s">
@@ -16163,7 +16166,7 @@
         <v>809</v>
       </c>
       <c r="H122">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I122"/>
       <c r="J122" t="s">
@@ -16213,7 +16216,7 @@
         <v>815</v>
       </c>
       <c r="H123">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I123"/>
       <c r="J123" t="s">
@@ -16275,7 +16278,7 @@
         <v>286</v>
       </c>
       <c r="H124">
-        <v>-93</v>
+        <v>-95</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -16329,7 +16332,7 @@
         <v>828</v>
       </c>
       <c r="H125">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -16391,7 +16394,7 @@
         <v>432</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>10</v>
@@ -16445,7 +16448,7 @@
         <v>841</v>
       </c>
       <c r="H127">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I127"/>
       <c r="J127" t="s">
@@ -16495,7 +16498,7 @@
         <v>847</v>
       </c>
       <c r="H128">
-        <v>-44</v>
+        <v>-46</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -16555,7 +16558,7 @@
         <v>854</v>
       </c>
       <c r="H129">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I129"/>
       <c r="J129" t="s">
@@ -16615,7 +16618,7 @@
         <v>154</v>
       </c>
       <c r="H130">
-        <v>-77</v>
+        <v>-79</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -16677,7 +16680,7 @@
         <v>313</v>
       </c>
       <c r="H131">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I131"/>
       <c r="J131" t="s">
@@ -16727,7 +16730,7 @@
         <v>874</v>
       </c>
       <c r="H132">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -16783,7 +16786,7 @@
         <v>880</v>
       </c>
       <c r="H133">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I133"/>
       <c r="J133" t="s">
@@ -16843,7 +16846,7 @@
         <v>889</v>
       </c>
       <c r="H134">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I134"/>
       <c r="J134" t="s">
@@ -16903,7 +16906,7 @@
         <v>897</v>
       </c>
       <c r="H135">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I135"/>
       <c r="J135" t="s">
@@ -16963,7 +16966,7 @@
         <v>902</v>
       </c>
       <c r="H136">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I136"/>
       <c r="J136" t="s">
@@ -17021,7 +17024,7 @@
         <v>910</v>
       </c>
       <c r="H137">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I137"/>
       <c r="J137" t="s">
@@ -17079,7 +17082,7 @@
         <v>915</v>
       </c>
       <c r="H138">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I138"/>
       <c r="J138" t="s">
@@ -17139,7 +17142,7 @@
         <v>923</v>
       </c>
       <c r="H139">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I139"/>
       <c r="J139" t="s">
@@ -17197,7 +17200,7 @@
         <v>929</v>
       </c>
       <c r="H140">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I140"/>
       <c r="J140" t="s">
@@ -17255,7 +17258,7 @@
         <v>936</v>
       </c>
       <c r="H141">
-        <v>-130</v>
+        <v>-132</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -17317,7 +17320,7 @@
         <v>279</v>
       </c>
       <c r="H142">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I142"/>
       <c r="J142" t="s">
@@ -17367,7 +17370,7 @@
         <v>949</v>
       </c>
       <c r="H143">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I143"/>
       <c r="J143" t="s">
@@ -17417,7 +17420,7 @@
         <v>254</v>
       </c>
       <c r="H144">
-        <v>-101</v>
+        <v>-103</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -17473,7 +17476,7 @@
         <v>959</v>
       </c>
       <c r="H145">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I145"/>
       <c r="J145" t="s">
@@ -17525,7 +17528,7 @@
         <v>964</v>
       </c>
       <c r="H146">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I146"/>
       <c r="J146" t="s">
@@ -17575,7 +17578,7 @@
         <v>703</v>
       </c>
       <c r="H147">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I147"/>
       <c r="J147" t="s">
@@ -17625,7 +17628,7 @@
         <v>975</v>
       </c>
       <c r="H148">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I148"/>
       <c r="J148" t="s">
@@ -17675,7 +17678,7 @@
         <v>980</v>
       </c>
       <c r="H149">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I149"/>
       <c r="J149" t="s">
@@ -17727,7 +17730,7 @@
         <v>985</v>
       </c>
       <c r="H150">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I150"/>
       <c r="J150" t="s">
@@ -17781,7 +17784,7 @@
         <v>959</v>
       </c>
       <c r="H151">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I151"/>
       <c r="J151" t="s">
@@ -17839,7 +17842,7 @@
         <v>621</v>
       </c>
       <c r="H152">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I152"/>
       <c r="J152" t="s">
@@ -17889,7 +17892,7 @@
         <v>1001</v>
       </c>
       <c r="H153">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I153"/>
       <c r="J153" t="s">
@@ -17941,7 +17944,7 @@
         <v>1007</v>
       </c>
       <c r="H154">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I154"/>
       <c r="J154" t="s">
@@ -17993,7 +17996,7 @@
         <v>1012</v>
       </c>
       <c r="H155">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I155"/>
       <c r="J155" t="s">
@@ -18045,7 +18048,7 @@
         <v>1018</v>
       </c>
       <c r="H156">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I156"/>
       <c r="J156" t="s">
@@ -18095,7 +18098,7 @@
         <v>1023</v>
       </c>
       <c r="H157">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I157"/>
       <c r="J157" t="s">
@@ -18155,7 +18158,7 @@
         <v>949</v>
       </c>
       <c r="H158">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I158"/>
       <c r="J158" t="s">
@@ -18215,7 +18218,7 @@
         <v>1037</v>
       </c>
       <c r="H159">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I159"/>
       <c r="J159" t="s">
@@ -18267,7 +18270,7 @@
         <v>1043</v>
       </c>
       <c r="H160">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I160"/>
       <c r="J160" t="s">
@@ -18323,7 +18326,7 @@
         <v>1049</v>
       </c>
       <c r="H161">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I161"/>
       <c r="J161" t="s">
@@ -18371,7 +18374,7 @@
         <v>1054</v>
       </c>
       <c r="H162">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I162"/>
       <c r="J162" t="s">
@@ -18429,7 +18432,7 @@
         <v>1060</v>
       </c>
       <c r="H163">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I163"/>
       <c r="J163" t="s">
@@ -18481,7 +18484,7 @@
         <v>30</v>
       </c>
       <c r="H164">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I164"/>
       <c r="J164" t="s">
@@ -18541,7 +18544,7 @@
         <v>1072</v>
       </c>
       <c r="H165">
-        <v>-151</v>
+        <v>-153</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -18601,7 +18604,7 @@
         <v>1078</v>
       </c>
       <c r="H166">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I166"/>
       <c r="J166" t="s">
@@ -18653,7 +18656,7 @@
         <v>1083</v>
       </c>
       <c r="H167">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I167"/>
       <c r="J167" t="s">
@@ -18711,7 +18714,7 @@
         <v>1091</v>
       </c>
       <c r="H168">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I168"/>
       <c r="J168" t="s">
@@ -18763,7 +18766,7 @@
         <v>1097</v>
       </c>
       <c r="H169">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I169"/>
       <c r="J169" t="s">
@@ -18813,7 +18816,7 @@
         <v>1102</v>
       </c>
       <c r="H170">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I170"/>
       <c r="J170" t="s">
@@ -18865,7 +18868,7 @@
         <v>1108</v>
       </c>
       <c r="H171">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I171"/>
       <c r="J171" t="s">
@@ -18913,7 +18916,7 @@
         <v>1114</v>
       </c>
       <c r="H172">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I172"/>
       <c r="J172" t="s">
@@ -18975,7 +18978,7 @@
         <v>1121</v>
       </c>
       <c r="H173">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I173"/>
       <c r="J173" t="s">
@@ -19031,7 +19034,7 @@
         <v>1127</v>
       </c>
       <c r="H174">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I174"/>
       <c r="J174" t="s">
@@ -19083,7 +19086,7 @@
         <v>902</v>
       </c>
       <c r="H175">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I175"/>
       <c r="J175" t="s">
@@ -19135,7 +19138,7 @@
         <v>1136</v>
       </c>
       <c r="H176">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -19189,7 +19192,7 @@
         <v>1142</v>
       </c>
       <c r="H177">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I177">
         <v>21</v>
@@ -19243,7 +19246,7 @@
         <v>1148</v>
       </c>
       <c r="H178">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I178"/>
       <c r="J178" t="s">
@@ -19303,7 +19306,7 @@
         <v>1156</v>
       </c>
       <c r="H179">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I179"/>
       <c r="J179" t="s">
@@ -19361,7 +19364,7 @@
         <v>854</v>
       </c>
       <c r="H180">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I180"/>
       <c r="J180" t="s">
@@ -19413,7 +19416,7 @@
         <v>1168</v>
       </c>
       <c r="H181">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I181"/>
       <c r="J181" t="s">
@@ -19461,7 +19464,7 @@
         <v>1173</v>
       </c>
       <c r="H182">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I182"/>
       <c r="J182" t="s">
@@ -19517,7 +19520,7 @@
         <v>1178</v>
       </c>
       <c r="H183">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I183"/>
       <c r="J183" t="s">
@@ -19577,7 +19580,7 @@
         <v>1187</v>
       </c>
       <c r="H184">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I184"/>
       <c r="J184" t="s">
@@ -19637,7 +19640,7 @@
         <v>1194</v>
       </c>
       <c r="H185">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I185"/>
       <c r="J185" t="s">
@@ -19687,7 +19690,7 @@
         <v>1198</v>
       </c>
       <c r="H186">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I186"/>
       <c r="J186" t="s">
@@ -19747,7 +19750,7 @@
         <v>691</v>
       </c>
       <c r="H187">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I187"/>
       <c r="J187" t="s">
@@ -19805,7 +19808,7 @@
         <v>167</v>
       </c>
       <c r="H188">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I188"/>
       <c r="J188" t="s">
@@ -19857,7 +19860,7 @@
         <v>1216</v>
       </c>
       <c r="H189">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I189"/>
       <c r="J189" t="s">
@@ -19915,7 +19918,7 @@
         <v>1223</v>
       </c>
       <c r="H190">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I190"/>
       <c r="J190" t="s">
@@ -19975,7 +19978,7 @@
         <v>504</v>
       </c>
       <c r="H191">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I191"/>
       <c r="J191" t="s">
@@ -20025,7 +20028,7 @@
         <v>1236</v>
       </c>
       <c r="H192">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I192"/>
       <c r="J192" t="s">
@@ -20077,7 +20080,7 @@
         <v>1242</v>
       </c>
       <c r="H193">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I193"/>
       <c r="J193" t="s">
@@ -20129,7 +20132,7 @@
         <v>1248</v>
       </c>
       <c r="H194">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I194"/>
       <c r="J194" t="s">
@@ -20183,7 +20186,7 @@
         <v>73</v>
       </c>
       <c r="H195">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I195"/>
       <c r="J195" t="s">
@@ -20235,7 +20238,7 @@
         <v>1257</v>
       </c>
       <c r="H196">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I196"/>
       <c r="J196" t="s">
@@ -20287,7 +20290,7 @@
         <v>132</v>
       </c>
       <c r="H197">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I197"/>
       <c r="J197" t="s">
@@ -20339,7 +20342,7 @@
         <v>1268</v>
       </c>
       <c r="H198">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I198">
         <v>10</v>
@@ -20393,7 +20396,7 @@
         <v>600</v>
       </c>
       <c r="H199">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I199"/>
       <c r="J199" t="s">
@@ -20453,7 +20456,7 @@
         <v>1281</v>
       </c>
       <c r="H200">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I200"/>
       <c r="J200" t="s">
@@ -20505,7 +20508,7 @@
         <v>1287</v>
       </c>
       <c r="H201">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I201"/>
       <c r="J201" t="s">
@@ -20557,7 +20560,7 @@
         <v>173</v>
       </c>
       <c r="H202">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I202"/>
       <c r="J202" t="s">
@@ -20615,7 +20618,7 @@
         <v>785</v>
       </c>
       <c r="H203">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I203"/>
       <c r="J203" t="s">
@@ -20675,7 +20678,7 @@
         <v>985</v>
       </c>
       <c r="H204">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I204"/>
       <c r="J204" t="s">
@@ -20735,7 +20738,7 @@
         <v>758</v>
       </c>
       <c r="H205">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I205"/>
       <c r="J205" t="s">
@@ -20785,7 +20788,7 @@
         <v>717</v>
       </c>
       <c r="H206">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I206"/>
       <c r="J206" t="s">
@@ -20843,7 +20846,7 @@
         <v>1322</v>
       </c>
       <c r="H207">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I207"/>
       <c r="J207" t="s">
@@ -20903,7 +20906,7 @@
         <v>1330</v>
       </c>
       <c r="H208">
-        <v>-99</v>
+        <v>-101</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -20963,7 +20966,7 @@
         <v>1338</v>
       </c>
       <c r="H209">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I209"/>
       <c r="J209" t="s">
@@ -21017,7 +21020,7 @@
         <v>1345</v>
       </c>
       <c r="H210">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I210"/>
       <c r="J210" t="s">
@@ -21073,7 +21076,7 @@
         <v>1350</v>
       </c>
       <c r="H211">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I211"/>
       <c r="J211" t="s">
@@ -21125,7 +21128,7 @@
         <v>1356</v>
       </c>
       <c r="H212">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I212"/>
       <c r="J212" t="s">
@@ -21183,7 +21186,7 @@
         <v>504</v>
       </c>
       <c r="H213">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I213"/>
       <c r="J213" t="s">
@@ -21233,7 +21236,7 @@
         <v>1366</v>
       </c>
       <c r="H214">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I214"/>
       <c r="J214" t="s">
@@ -21293,7 +21296,7 @@
         <v>1373</v>
       </c>
       <c r="H215">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I215"/>
       <c r="J215" t="s">
@@ -21353,7 +21356,7 @@
         <v>1381</v>
       </c>
       <c r="H216">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I216"/>
       <c r="J216" t="s">
@@ -21411,7 +21414,7 @@
         <v>1387</v>
       </c>
       <c r="H217">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I217"/>
       <c r="J217" t="s">
@@ -21463,7 +21466,7 @@
         <v>1392</v>
       </c>
       <c r="H218">
-        <v>-68</v>
+        <v>-70</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -21523,7 +21526,7 @@
         <v>1398</v>
       </c>
       <c r="H219">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I219"/>
       <c r="J219" t="s">
@@ -21575,7 +21578,7 @@
         <v>1404</v>
       </c>
       <c r="H220">
-        <v>-105</v>
+        <v>-107</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -21635,7 +21638,7 @@
         <v>1330</v>
       </c>
       <c r="H221">
-        <v>-99</v>
+        <v>-101</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -21689,7 +21692,7 @@
         <v>1416</v>
       </c>
       <c r="H222">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I222"/>
       <c r="J222" t="s">
@@ -21741,7 +21744,7 @@
         <v>1421</v>
       </c>
       <c r="H223">
-        <v>-112</v>
+        <v>-114</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -21795,7 +21798,7 @@
         <v>1427</v>
       </c>
       <c r="H224">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I224"/>
       <c r="J224" t="s">
@@ -21847,7 +21850,7 @@
         <v>1433</v>
       </c>
       <c r="H225">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I225"/>
       <c r="J225" t="s">
@@ -21899,7 +21902,7 @@
         <v>1439</v>
       </c>
       <c r="H226">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I226"/>
       <c r="J226" t="s">
@@ -21959,7 +21962,7 @@
         <v>1446</v>
       </c>
       <c r="H227">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I227"/>
       <c r="J227" t="s">
@@ -22019,7 +22022,7 @@
         <v>1454</v>
       </c>
       <c r="H228">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I228"/>
       <c r="J228" t="s">
@@ -22079,7 +22082,7 @@
         <v>1461</v>
       </c>
       <c r="H229">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I229"/>
       <c r="J229" t="s">
@@ -22135,7 +22138,7 @@
         <v>1467</v>
       </c>
       <c r="H230">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I230"/>
       <c r="J230" t="s">
@@ -22185,7 +22188,7 @@
         <v>1350</v>
       </c>
       <c r="H231">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I231"/>
       <c r="J231" t="s">
@@ -22237,7 +22240,7 @@
         <v>1478</v>
       </c>
       <c r="H232">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I232"/>
       <c r="J232" t="s">
@@ -22299,7 +22302,7 @@
         <v>1487</v>
       </c>
       <c r="H233">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I233"/>
       <c r="J233" t="s">
@@ -22359,7 +22362,7 @@
         <v>1493</v>
       </c>
       <c r="H234">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I234"/>
       <c r="J234" t="s">
@@ -22413,7 +22416,7 @@
         <v>1498</v>
       </c>
       <c r="H235">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I235"/>
       <c r="J235" t="s">
@@ -22467,7 +22470,7 @@
         <v>1504</v>
       </c>
       <c r="H236">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I236"/>
       <c r="J236" t="s">
@@ -22527,7 +22530,7 @@
         <v>1512</v>
       </c>
       <c r="H237">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I237"/>
       <c r="J237" t="s">
@@ -22587,7 +22590,7 @@
         <v>1520</v>
       </c>
       <c r="H238">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I238"/>
       <c r="J238" t="s">
@@ -22639,7 +22642,7 @@
         <v>633</v>
       </c>
       <c r="H239">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I239"/>
       <c r="J239" t="s">
@@ -22691,7 +22694,7 @@
         <v>1530</v>
       </c>
       <c r="H240">
-        <v>-85</v>
+        <v>-87</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22751,7 +22754,7 @@
         <v>731</v>
       </c>
       <c r="H241">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I241"/>
       <c r="J241" t="s">
@@ -22803,7 +22806,7 @@
         <v>260</v>
       </c>
       <c r="H242">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -22865,7 +22868,7 @@
         <v>1545</v>
       </c>
       <c r="H243">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I243"/>
       <c r="J243" t="s">
@@ -22917,7 +22920,7 @@
         <v>1551</v>
       </c>
       <c r="H244">
-        <v>-120</v>
+        <v>-122</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -22977,7 +22980,7 @@
         <v>1556</v>
       </c>
       <c r="H245">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I245"/>
       <c r="J245" t="s">
@@ -23033,7 +23036,7 @@
         <v>1560</v>
       </c>
       <c r="H246">
-        <v>-268</v>
+        <v>-270</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -23085,7 +23088,7 @@
         <v>1566</v>
       </c>
       <c r="H247">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I247"/>
       <c r="J247" t="s">
@@ -23135,7 +23138,7 @@
         <v>1571</v>
       </c>
       <c r="H248">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -23243,7 +23246,7 @@
         <v>1581</v>
       </c>
       <c r="H250">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I250"/>
       <c r="J250" t="s">
@@ -23303,7 +23306,7 @@
         <v>1586</v>
       </c>
       <c r="H251">
-        <v>-313</v>
+        <v>-315</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -23355,7 +23358,7 @@
         <v>1592</v>
       </c>
       <c r="H252">
-        <v>-86</v>
+        <v>-88</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -23415,7 +23418,7 @@
         <v>1600</v>
       </c>
       <c r="H253">
-        <v>-96</v>
+        <v>-98</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -23471,7 +23474,7 @@
         <v>1606</v>
       </c>
       <c r="H254">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I254"/>
       <c r="J254" t="s">
@@ -23533,7 +23536,7 @@
         <v>1613</v>
       </c>
       <c r="H255">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -23593,7 +23596,7 @@
         <v>1622</v>
       </c>
       <c r="H256">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I256"/>
       <c r="J256" t="s">
@@ -23651,7 +23654,7 @@
         <v>552</v>
       </c>
       <c r="H257">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I257"/>
       <c r="J257" t="s">
@@ -23711,7 +23714,7 @@
         <v>147</v>
       </c>
       <c r="H258">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I258"/>
       <c r="J258" t="s">
@@ -23769,7 +23772,7 @@
         <v>1642</v>
       </c>
       <c r="H259">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I259"/>
       <c r="J259" t="s">
@@ -23829,7 +23832,7 @@
         <v>1651</v>
       </c>
       <c r="H260">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I260"/>
       <c r="J260" t="s">
@@ -23879,7 +23882,7 @@
         <v>1656</v>
       </c>
       <c r="H261">
-        <v>-109</v>
+        <v>-111</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -23931,7 +23934,7 @@
         <v>621</v>
       </c>
       <c r="H262">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I262"/>
       <c r="J262" t="s">
@@ -23989,7 +23992,7 @@
         <v>1665</v>
       </c>
       <c r="H263">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I263"/>
       <c r="J263" t="s">
@@ -24051,7 +24054,7 @@
         <v>1493</v>
       </c>
       <c r="H264">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I264"/>
       <c r="J264" t="s">
@@ -24109,7 +24112,7 @@
         <v>1679</v>
       </c>
       <c r="H265">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I265"/>
       <c r="J265" t="s">
@@ -24163,7 +24166,7 @@
         <v>929</v>
       </c>
       <c r="H266">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I266"/>
       <c r="J266" t="s">
@@ -24213,7 +24216,7 @@
         <v>1688</v>
       </c>
       <c r="H267">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I267"/>
       <c r="J267" t="s">
@@ -24265,7 +24268,7 @@
         <v>321</v>
       </c>
       <c r="H268">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I268"/>
       <c r="J268" t="s">
@@ -24325,7 +24328,7 @@
         <v>1700</v>
       </c>
       <c r="H269">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I269"/>
       <c r="J269" t="s">
@@ -24377,7 +24380,7 @@
         <v>1705</v>
       </c>
       <c r="H270">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I270"/>
       <c r="J270" t="s">
@@ -24429,7 +24432,7 @@
         <v>1711</v>
       </c>
       <c r="H271">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I271"/>
       <c r="J271" t="s">
@@ -24485,7 +24488,7 @@
         <v>1716</v>
       </c>
       <c r="H272">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I272"/>
       <c r="J272" t="s">
@@ -24545,7 +24548,7 @@
         <v>1723</v>
       </c>
       <c r="H273">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I273"/>
       <c r="J273" t="s">
@@ -24597,7 +24600,7 @@
         <v>1729</v>
       </c>
       <c r="H274">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I274">
         <v>10</v>
@@ -24649,7 +24652,7 @@
         <v>1734</v>
       </c>
       <c r="H275">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I275"/>
       <c r="J275" t="s">
@@ -24707,7 +24710,7 @@
         <v>1454</v>
       </c>
       <c r="H276">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I276"/>
       <c r="J276" t="s">
@@ -24763,7 +24766,7 @@
         <v>1744</v>
       </c>
       <c r="H277">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I277"/>
       <c r="J277" t="s">
@@ -24821,7 +24824,7 @@
         <v>959</v>
       </c>
       <c r="H278">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I278"/>
       <c r="J278" t="s">
@@ -24871,7 +24874,7 @@
         <v>1753</v>
       </c>
       <c r="H279">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I279"/>
       <c r="J279" t="s">
@@ -24929,7 +24932,7 @@
         <v>248</v>
       </c>
       <c r="H280">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I280"/>
       <c r="J280" t="s">
@@ -24981,7 +24984,7 @@
         <v>1723</v>
       </c>
       <c r="H281">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I281"/>
       <c r="J281" t="s">
@@ -25041,7 +25044,7 @@
         <v>1768</v>
       </c>
       <c r="H282">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I282"/>
       <c r="J282" t="s">
@@ -25103,7 +25106,7 @@
         <v>1775</v>
       </c>
       <c r="H283">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I283"/>
       <c r="J283" t="s">
@@ -25157,7 +25160,7 @@
         <v>1780</v>
       </c>
       <c r="H284">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I284"/>
       <c r="J284" t="s">
@@ -25209,7 +25212,7 @@
         <v>1784</v>
       </c>
       <c r="H285">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I285"/>
       <c r="J285" t="s">
@@ -25261,7 +25264,7 @@
         <v>1790</v>
       </c>
       <c r="H286">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I286"/>
       <c r="J286" t="s">
@@ -25321,7 +25324,7 @@
         <v>1798</v>
       </c>
       <c r="H287">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I287"/>
       <c r="J287" t="s">
@@ -25381,7 +25384,7 @@
         <v>1806</v>
       </c>
       <c r="H288">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I288"/>
       <c r="J288" t="s">
@@ -25439,7 +25442,7 @@
         <v>1811</v>
       </c>
       <c r="H289">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I289"/>
       <c r="J289" t="s">
@@ -25491,7 +25494,7 @@
         <v>731</v>
       </c>
       <c r="H290">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I290"/>
       <c r="J290" t="s">
@@ -25547,7 +25550,7 @@
         <v>1822</v>
       </c>
       <c r="H291">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I291"/>
       <c r="J291" t="s">
@@ -25599,7 +25602,7 @@
         <v>1827</v>
       </c>
       <c r="H292">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I292"/>
       <c r="J292" t="s">
@@ -25657,7 +25660,7 @@
         <v>1345</v>
       </c>
       <c r="H293">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I293"/>
       <c r="J293" t="s">
@@ -25707,7 +25710,7 @@
         <v>1838</v>
       </c>
       <c r="H294">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I294">
         <v>10</v>
@@ -25759,7 +25762,7 @@
         <v>414</v>
       </c>
       <c r="H295">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I295"/>
       <c r="J295" t="s">
@@ -25819,7 +25822,7 @@
         <v>1366</v>
       </c>
       <c r="H296">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I296"/>
       <c r="J296" t="s">
@@ -25879,7 +25882,7 @@
         <v>1855</v>
       </c>
       <c r="H297">
-        <v>-159</v>
+        <v>-161</v>
       </c>
       <c r="I297">
         <v>0</v>
@@ -25937,7 +25940,7 @@
         <v>30</v>
       </c>
       <c r="H298">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I298"/>
       <c r="J298" t="s">
@@ -25987,7 +25990,7 @@
         <v>1862</v>
       </c>
       <c r="H299">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I299"/>
       <c r="J299" t="s">
@@ -26035,7 +26038,7 @@
         <v>1867</v>
       </c>
       <c r="H300">
-        <v>-74</v>
+        <v>-76</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -26097,7 +26100,7 @@
         <v>1872</v>
       </c>
       <c r="H301">
-        <v>-152</v>
+        <v>-154</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -26157,7 +26160,7 @@
         <v>1037</v>
       </c>
       <c r="H302">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I302"/>
       <c r="J302" t="s">
@@ -26209,7 +26212,7 @@
         <v>1883</v>
       </c>
       <c r="H303">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I303"/>
       <c r="J303" t="s">
@@ -26267,7 +26270,7 @@
         <v>1888</v>
       </c>
       <c r="H304">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I304"/>
       <c r="J304" t="s">
@@ -26325,7 +26328,7 @@
         <v>1896</v>
       </c>
       <c r="H305">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I305"/>
       <c r="J305" t="s">
@@ -26385,7 +26388,7 @@
         <v>1902</v>
       </c>
       <c r="H306">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I306"/>
       <c r="J306" t="s">
@@ -26441,7 +26444,7 @@
         <v>779</v>
       </c>
       <c r="H307">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I307"/>
       <c r="J307" t="s">
@@ -26499,7 +26502,7 @@
         <v>1914</v>
       </c>
       <c r="H308">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I308"/>
       <c r="J308" t="s">
@@ -26555,7 +26558,7 @@
         <v>1920</v>
       </c>
       <c r="H309">
-        <v>-136</v>
+        <v>-138</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -26615,7 +26618,7 @@
         <v>1926</v>
       </c>
       <c r="H310">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I310"/>
       <c r="J310" t="s">
@@ -26675,7 +26678,7 @@
         <v>910</v>
       </c>
       <c r="H311">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I311"/>
       <c r="J311" t="s">
@@ -26727,7 +26730,7 @@
         <v>1937</v>
       </c>
       <c r="H312">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I312"/>
       <c r="J312" t="s">
@@ -26777,7 +26780,7 @@
         <v>1942</v>
       </c>
       <c r="H313">
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="I313">
         <v>0</v>
@@ -26839,7 +26842,7 @@
         <v>1387</v>
       </c>
       <c r="H314">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I314"/>
       <c r="J314" t="s">
@@ -26935,7 +26938,7 @@
         <v>923</v>
       </c>
       <c r="H316">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I316"/>
       <c r="J316" t="s">
@@ -26987,7 +26990,7 @@
         <v>809</v>
       </c>
       <c r="H317">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I317"/>
       <c r="J317" t="s">
@@ -27039,7 +27042,7 @@
         <v>1962</v>
       </c>
       <c r="H318">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I318"/>
       <c r="J318" t="s">
@@ -27097,7 +27100,7 @@
         <v>785</v>
       </c>
       <c r="H319">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I319"/>
       <c r="J319" t="s">
@@ -27157,7 +27160,7 @@
         <v>335</v>
       </c>
       <c r="H320">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I320"/>
       <c r="J320" t="s">
@@ -27219,7 +27222,7 @@
         <v>1981</v>
       </c>
       <c r="H321">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I321"/>
       <c r="J321" t="s">
@@ -27269,7 +27272,7 @@
         <v>1986</v>
       </c>
       <c r="H322">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I322"/>
       <c r="J322" t="s">
@@ -27329,7 +27332,7 @@
         <v>1454</v>
       </c>
       <c r="H323">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I323"/>
       <c r="J323" t="s">
@@ -27381,7 +27384,7 @@
         <v>745</v>
       </c>
       <c r="H324">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I324"/>
       <c r="J324" t="s">
@@ -27443,7 +27446,7 @@
         <v>2002</v>
       </c>
       <c r="H325">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I325"/>
       <c r="J325" t="s">
@@ -27493,7 +27496,7 @@
         <v>638</v>
       </c>
       <c r="H326">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I326"/>
       <c r="J326" t="s">
@@ -27553,7 +27556,7 @@
         <v>2015</v>
       </c>
       <c r="H327">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I327"/>
       <c r="J327" t="s">
@@ -27603,7 +27606,7 @@
         <v>2021</v>
       </c>
       <c r="H328">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I328"/>
       <c r="J328" t="s">
@@ -27655,7 +27658,7 @@
         <v>2027</v>
       </c>
       <c r="H329">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I329"/>
       <c r="J329" t="s">
@@ -27703,7 +27706,7 @@
         <v>2033</v>
       </c>
       <c r="H330">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I330"/>
       <c r="J330" t="s">
@@ -27763,7 +27766,7 @@
         <v>2040</v>
       </c>
       <c r="H331">
-        <v>-67</v>
+        <v>-69</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -27825,7 +27828,7 @@
         <v>2046</v>
       </c>
       <c r="H332">
-        <v>-76</v>
+        <v>-78</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -27887,7 +27890,7 @@
         <v>450</v>
       </c>
       <c r="H333">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I333"/>
       <c r="J333" t="s">
@@ -27945,7 +27948,7 @@
         <v>2059</v>
       </c>
       <c r="H334">
-        <v>-131</v>
+        <v>-133</v>
       </c>
       <c r="I334">
         <v>0</v>
@@ -27997,7 +28000,7 @@
         <v>2064</v>
       </c>
       <c r="H335">
-        <v>-239</v>
+        <v>-241</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -28051,7 +28054,7 @@
         <v>2070</v>
       </c>
       <c r="H336">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I336"/>
       <c r="J336" t="s">
@@ -28099,7 +28102,7 @@
         <v>482</v>
       </c>
       <c r="H337">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I337"/>
       <c r="J337" t="s">
@@ -28147,7 +28150,7 @@
         <v>2077</v>
       </c>
       <c r="H338">
-        <v>-133</v>
+        <v>-135</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -28201,7 +28204,7 @@
         <v>697</v>
       </c>
       <c r="H339">
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -28265,7 +28268,7 @@
         <v>2088</v>
       </c>
       <c r="H340">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I340"/>
       <c r="J340" t="s">
@@ -28319,7 +28322,7 @@
         <v>2092</v>
       </c>
       <c r="H341">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I341"/>
       <c r="J341" t="s">
@@ -28379,7 +28382,7 @@
         <v>482</v>
       </c>
       <c r="H342">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I342"/>
       <c r="J342" t="s">
@@ -28439,7 +28442,7 @@
         <v>2106</v>
       </c>
       <c r="H343">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I343"/>
       <c r="J343" t="s">
@@ -28489,7 +28492,7 @@
         <v>691</v>
       </c>
       <c r="H344">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I344"/>
       <c r="J344" t="s">
@@ -28541,7 +28544,7 @@
         <v>2115</v>
       </c>
       <c r="H345">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I345"/>
       <c r="J345" t="s">
@@ -28601,7 +28604,7 @@
         <v>2122</v>
       </c>
       <c r="H346">
-        <v>-106</v>
+        <v>-108</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -28663,7 +28666,7 @@
         <v>2129</v>
       </c>
       <c r="H347">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I347"/>
       <c r="J347" t="s">
@@ -28721,7 +28724,7 @@
         <v>2136</v>
       </c>
       <c r="H348">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I348"/>
       <c r="J348" t="s">
@@ -28773,7 +28776,7 @@
         <v>2141</v>
       </c>
       <c r="H349">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I349"/>
       <c r="J349" t="s">
@@ -28825,7 +28828,7 @@
         <v>2146</v>
       </c>
       <c r="H350">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I350"/>
       <c r="J350" t="s">
@@ -28875,7 +28878,7 @@
         <v>2151</v>
       </c>
       <c r="H351">
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -28925,7 +28928,7 @@
         <v>2156</v>
       </c>
       <c r="H352">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I352"/>
       <c r="J352" t="s">
@@ -28977,7 +28980,7 @@
         <v>73</v>
       </c>
       <c r="H353">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I353"/>
       <c r="J353" t="s">
@@ -29027,7 +29030,7 @@
         <v>2164</v>
       </c>
       <c r="H354">
-        <v>-170</v>
+        <v>-172</v>
       </c>
       <c r="I354">
         <v>0</v>
@@ -29081,7 +29084,7 @@
         <v>889</v>
       </c>
       <c r="H355">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I355"/>
       <c r="J355" t="s">
@@ -29145,7 +29148,7 @@
         <v>2176</v>
       </c>
       <c r="H356">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I356"/>
       <c r="J356" t="s">
@@ -29203,7 +29206,7 @@
         <v>2183</v>
       </c>
       <c r="H357">
-        <v>-190</v>
+        <v>-192</v>
       </c>
       <c r="I357">
         <v>0</v>
@@ -29265,7 +29268,7 @@
         <v>2189</v>
       </c>
       <c r="H358">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I358"/>
       <c r="J358" t="s">
@@ -29327,7 +29330,7 @@
         <v>2195</v>
       </c>
       <c r="H359">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I359"/>
       <c r="J359" t="s">
@@ -29387,7 +29390,7 @@
         <v>745</v>
       </c>
       <c r="H360">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I360"/>
       <c r="J360" t="s">
@@ -29447,7 +29450,7 @@
         <v>2208</v>
       </c>
       <c r="H361">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I361"/>
       <c r="J361" t="s">
@@ -29499,7 +29502,7 @@
         <v>1381</v>
       </c>
       <c r="H362">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I362"/>
       <c r="J362" t="s">
@@ -29551,7 +29554,7 @@
         <v>1427</v>
       </c>
       <c r="H363">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I363"/>
       <c r="J363" t="s">
@@ -29601,7 +29604,7 @@
         <v>2219</v>
       </c>
       <c r="H364">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I364"/>
       <c r="J364" t="s">
@@ -29653,7 +29656,7 @@
         <v>2225</v>
       </c>
       <c r="H365">
-        <v>-129</v>
+        <v>-131</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -29707,7 +29710,7 @@
         <v>167</v>
       </c>
       <c r="H366">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I366"/>
       <c r="J366" t="s">
@@ -29763,7 +29766,7 @@
         <v>2156</v>
       </c>
       <c r="H367">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I367"/>
       <c r="J367" t="s">
@@ -29815,7 +29818,7 @@
         <v>2236</v>
       </c>
       <c r="H368">
-        <v>-396</v>
+        <v>-398</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -29863,7 +29866,7 @@
         <v>2240</v>
       </c>
       <c r="H369">
-        <v>-75</v>
+        <v>-77</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -29925,7 +29928,7 @@
         <v>2245</v>
       </c>
       <c r="H370">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I370"/>
       <c r="J370" t="s">
@@ -29983,7 +29986,7 @@
         <v>2252</v>
       </c>
       <c r="H371">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="I371">
         <v>0</v>
@@ -30037,7 +30040,7 @@
         <v>561</v>
       </c>
       <c r="H372">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I372"/>
       <c r="J372" t="s">
@@ -30087,7 +30090,7 @@
         <v>2263</v>
       </c>
       <c r="H373">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I373"/>
       <c r="J373" t="s">
@@ -30145,7 +30148,7 @@
         <v>2271</v>
       </c>
       <c r="H374">
-        <v>-134</v>
+        <v>-136</v>
       </c>
       <c r="I374">
         <v>0</v>
@@ -30199,7 +30202,7 @@
         <v>2276</v>
       </c>
       <c r="H375">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I375"/>
       <c r="J375" t="s">
@@ -30249,7 +30252,7 @@
         <v>2282</v>
       </c>
       <c r="H376">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I376"/>
       <c r="J376" t="s">
@@ -30309,7 +30312,7 @@
         <v>2290</v>
       </c>
       <c r="H377">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I377"/>
       <c r="J377" t="s">
@@ -30361,7 +30364,7 @@
         <v>1811</v>
       </c>
       <c r="H378">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I378"/>
       <c r="J378" t="s">
@@ -30421,7 +30424,7 @@
         <v>1622</v>
       </c>
       <c r="H379">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I379"/>
       <c r="J379" t="s">
@@ -30483,7 +30486,7 @@
         <v>2309</v>
       </c>
       <c r="H380">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I380"/>
       <c r="J380" t="s">
@@ -30543,7 +30546,7 @@
         <v>2315</v>
       </c>
       <c r="H381">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I381">
         <v>0</v>
@@ -30597,7 +30600,7 @@
         <v>2320</v>
       </c>
       <c r="H382">
-        <v>-92</v>
+        <v>-94</v>
       </c>
       <c r="I382">
         <v>0</v>
@@ -30657,7 +30660,7 @@
         <v>2327</v>
       </c>
       <c r="H383">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I383"/>
       <c r="J383" t="s">
@@ -30759,7 +30762,7 @@
         <v>2336</v>
       </c>
       <c r="H385">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I385"/>
       <c r="J385" t="s">
@@ -30819,7 +30822,7 @@
         <v>2343</v>
       </c>
       <c r="H386">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I386"/>
       <c r="J386" t="s">
@@ -30871,7 +30874,7 @@
         <v>2349</v>
       </c>
       <c r="H387">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I387"/>
       <c r="J387" t="s">
@@ -30931,7 +30934,7 @@
         <v>2355</v>
       </c>
       <c r="H388">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I388"/>
       <c r="J388" t="s">
@@ -30979,7 +30982,7 @@
         <v>1723</v>
       </c>
       <c r="H389">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I389"/>
       <c r="J389" t="s">
@@ -31031,7 +31034,7 @@
         <v>2366</v>
       </c>
       <c r="H390">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I390"/>
       <c r="J390" t="s">
@@ -31091,7 +31094,7 @@
         <v>2373</v>
       </c>
       <c r="H391">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I391"/>
       <c r="J391" t="s">
@@ -31141,7 +31144,7 @@
         <v>426</v>
       </c>
       <c r="H392">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I392"/>
       <c r="J392" t="s">
@@ -31191,7 +31194,7 @@
         <v>2309</v>
       </c>
       <c r="H393">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I393"/>
       <c r="J393" t="s">
@@ -31251,7 +31254,7 @@
         <v>2389</v>
       </c>
       <c r="H394">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I394"/>
       <c r="J394" t="s">
@@ -31303,7 +31306,7 @@
         <v>2395</v>
       </c>
       <c r="H395">
-        <v>-110</v>
+        <v>-112</v>
       </c>
       <c r="I395">
         <v>0</v>
@@ -31355,7 +31358,7 @@
         <v>2401</v>
       </c>
       <c r="H396">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I396"/>
       <c r="J396" t="s">
@@ -31413,7 +31416,7 @@
         <v>2405</v>
       </c>
       <c r="H397">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I397"/>
       <c r="J397" t="s">
@@ -31465,7 +31468,7 @@
         <v>2411</v>
       </c>
       <c r="H398">
-        <v>-79</v>
+        <v>-81</v>
       </c>
       <c r="I398">
         <v>0</v>
@@ -31519,7 +31522,7 @@
         <v>2416</v>
       </c>
       <c r="H399">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I399"/>
       <c r="J399" t="s">
@@ -31571,7 +31574,7 @@
         <v>450</v>
       </c>
       <c r="H400">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I400"/>
       <c r="J400" t="s">
@@ -31627,7 +31630,7 @@
         <v>2429</v>
       </c>
       <c r="H401">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I401"/>
       <c r="J401" t="s">
@@ -31679,7 +31682,7 @@
         <v>2434</v>
       </c>
       <c r="H402">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I402"/>
       <c r="J402" t="s">
@@ -31735,7 +31738,7 @@
         <v>2440</v>
       </c>
       <c r="H403">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I403"/>
       <c r="J403" t="s">
@@ -31787,7 +31790,7 @@
         <v>2115</v>
       </c>
       <c r="H404">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I404"/>
       <c r="J404" t="s">
@@ -31839,7 +31842,7 @@
         <v>2449</v>
       </c>
       <c r="H405">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I405"/>
       <c r="J405" t="s">
@@ -31895,7 +31898,7 @@
         <v>2455</v>
       </c>
       <c r="H406">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I406"/>
       <c r="J406" t="s">
@@ -31949,7 +31952,7 @@
         <v>2461</v>
       </c>
       <c r="H407">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I407"/>
       <c r="J407" t="s">
@@ -32007,7 +32010,7 @@
         <v>1775</v>
       </c>
       <c r="H408">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I408"/>
       <c r="J408" t="s">
@@ -32065,7 +32068,7 @@
         <v>2473</v>
       </c>
       <c r="H409">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I409"/>
       <c r="J409" t="s">
@@ -32117,7 +32120,7 @@
         <v>2479</v>
       </c>
       <c r="H410">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I410"/>
       <c r="J410" t="s">
@@ -32171,7 +32174,7 @@
         <v>2484</v>
       </c>
       <c r="H411">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I411"/>
       <c r="J411" t="s">
@@ -32227,7 +32230,7 @@
         <v>2489</v>
       </c>
       <c r="H412">
-        <v>-121</v>
+        <v>-123</v>
       </c>
       <c r="I412">
         <v>0</v>
@@ -32289,7 +32292,7 @@
         <v>739</v>
       </c>
       <c r="H413">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I413"/>
       <c r="J413" t="s">
@@ -32337,7 +32340,7 @@
         <v>279</v>
       </c>
       <c r="H414">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I414"/>
       <c r="J414" t="s">
@@ -32397,7 +32400,7 @@
         <v>2508</v>
       </c>
       <c r="H415">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I415"/>
       <c r="J415" t="s">
@@ -32455,9 +32458,11 @@
         <v>2512</v>
       </c>
       <c r="H416">
-        <v>22</v>
-      </c>
-      <c r="I416"/>
+        <v>20</v>
+      </c>
+      <c r="I416">
+        <v>21</v>
+      </c>
       <c r="J416" t="s">
         <v>2513</v>
       </c>
@@ -32517,7 +32522,7 @@
         <v>54</v>
       </c>
       <c r="H417">
-        <v>-78</v>
+        <v>-80</v>
       </c>
       <c r="I417">
         <v>0</v>
@@ -32571,7 +32576,7 @@
         <v>2523</v>
       </c>
       <c r="H418">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I418"/>
       <c r="J418" t="s">
@@ -32631,7 +32636,7 @@
         <v>2529</v>
       </c>
       <c r="H419">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I419"/>
       <c r="J419" t="s">
@@ -32683,7 +32688,7 @@
         <v>357</v>
       </c>
       <c r="H420">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I420"/>
       <c r="J420" t="s">
@@ -32735,7 +32740,7 @@
         <v>2540</v>
       </c>
       <c r="H421">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I421"/>
       <c r="J421" t="s">
@@ -32787,7 +32792,7 @@
         <v>2546</v>
       </c>
       <c r="H422">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I422"/>
       <c r="J422" t="s">
@@ -32845,7 +32850,7 @@
         <v>1622</v>
       </c>
       <c r="H423">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I423"/>
       <c r="J423" t="s">
@@ -32897,7 +32902,7 @@
         <v>202</v>
       </c>
       <c r="H424">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I424"/>
       <c r="J424" t="s">
@@ -32949,7 +32954,7 @@
         <v>2562</v>
       </c>
       <c r="H425">
-        <v>-135</v>
+        <v>-137</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -33009,7 +33014,7 @@
         <v>2569</v>
       </c>
       <c r="H426">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I426"/>
       <c r="J426" t="s">
@@ -33061,7 +33066,7 @@
         <v>2489</v>
       </c>
       <c r="H427">
-        <v>-121</v>
+        <v>-123</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -33115,7 +33120,7 @@
         <v>2578</v>
       </c>
       <c r="H428">
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="I428">
         <v>0</v>
@@ -33169,7 +33174,7 @@
         <v>313</v>
       </c>
       <c r="H429">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I429"/>
       <c r="J429" t="s">
@@ -33231,7 +33236,7 @@
         <v>2588</v>
       </c>
       <c r="H430">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I430"/>
       <c r="J430" t="s">
@@ -33291,7 +33296,7 @@
         <v>384</v>
       </c>
       <c r="H431">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I431"/>
       <c r="J431" t="s">
@@ -33353,7 +33358,7 @@
         <v>2600</v>
       </c>
       <c r="H432">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I432"/>
       <c r="J432" t="s">
@@ -33407,7 +33412,7 @@
         <v>2605</v>
       </c>
       <c r="H433">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I433"/>
       <c r="J433" t="s">
@@ -33459,7 +33464,7 @@
         <v>2610</v>
       </c>
       <c r="H434">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I434"/>
       <c r="J434" t="s">
@@ -33507,7 +33512,7 @@
         <v>490</v>
       </c>
       <c r="H435">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I435"/>
       <c r="J435" t="s">
@@ -33567,7 +33572,7 @@
         <v>652</v>
       </c>
       <c r="H436">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I436"/>
       <c r="J436" t="s">
@@ -33619,7 +33624,7 @@
         <v>2473</v>
       </c>
       <c r="H437">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I437"/>
       <c r="J437" t="s">
@@ -33671,7 +33676,7 @@
         <v>2092</v>
       </c>
       <c r="H438">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I438"/>
       <c r="J438" t="s">
@@ -33721,7 +33726,7 @@
         <v>2540</v>
       </c>
       <c r="H439">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I439"/>
       <c r="J439" t="s">
@@ -33773,7 +33778,7 @@
         <v>2637</v>
       </c>
       <c r="H440">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I440"/>
       <c r="J440" t="s">
@@ -33829,7 +33834,7 @@
         <v>2642</v>
       </c>
       <c r="H441">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I441"/>
       <c r="J441" t="s">
@@ -33887,7 +33892,7 @@
         <v>764</v>
       </c>
       <c r="H442">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="I442">
         <v>0</v>
@@ -33941,7 +33946,7 @@
         <v>2652</v>
       </c>
       <c r="H443">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I443"/>
       <c r="J443" t="s">
@@ -33991,7 +33996,7 @@
         <v>2070</v>
       </c>
       <c r="H444">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I444"/>
       <c r="J444" t="s">
@@ -34051,7 +34056,7 @@
         <v>2664</v>
       </c>
       <c r="H445">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I445"/>
       <c r="J445" t="s">
@@ -34103,9 +34108,11 @@
         <v>2668</v>
       </c>
       <c r="H446">
-        <v>23</v>
-      </c>
-      <c r="I446"/>
+        <v>21</v>
+      </c>
+      <c r="I446">
+        <v>21</v>
+      </c>
       <c r="J446" t="s">
         <v>2669</v>
       </c>
@@ -34163,7 +34170,7 @@
         <v>2676</v>
       </c>
       <c r="H447">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I447"/>
       <c r="J447" t="s">
@@ -34215,7 +34222,7 @@
         <v>1078</v>
       </c>
       <c r="H448">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I448"/>
       <c r="J448" t="s">
@@ -34273,7 +34280,7 @@
         <v>1097</v>
       </c>
       <c r="H449">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I449"/>
       <c r="J449" t="s">
@@ -34325,7 +34332,7 @@
         <v>2691</v>
       </c>
       <c r="H450">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I450"/>
       <c r="J450" t="s">
@@ -34381,7 +34388,7 @@
         <v>194</v>
       </c>
       <c r="H451">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I451"/>
       <c r="J451" t="s">
@@ -34433,7 +34440,7 @@
         <v>2389</v>
       </c>
       <c r="H452">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I452"/>
       <c r="J452" t="s">
@@ -34448,7 +34455,9 @@
       <c r="M452" t="s">
         <v>2705</v>
       </c>
-      <c r="N452"/>
+      <c r="N452" t="s">
+        <v>2706</v>
+      </c>
       <c r="O452">
         <v>9178610922</v>
       </c>
@@ -34482,28 +34491,28 @@
         <v>5</v>
       </c>
       <c r="G453" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="H453">
-        <v>-66</v>
+        <v>-68</v>
       </c>
       <c r="I453">
         <v>0</v>
       </c>
       <c r="J453" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="K453" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="L453" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="M453" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="N453" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="O453"/>
       <c r="P453">
@@ -34536,26 +34545,26 @@
         <v>5</v>
       </c>
       <c r="G454" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="H454">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I454"/>
       <c r="J454" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="K454" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="L454" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="M454" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="N454" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="O454">
         <v>9178379930</v>
@@ -34588,28 +34597,28 @@
       </c>
       <c r="F455"/>
       <c r="G455" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="H455">
-        <v>-132</v>
+        <v>-134</v>
       </c>
       <c r="I455">
         <v>0</v>
       </c>
       <c r="J455" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="K455" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="L455" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="M455" t="s">
         <v>2256</v>
       </c>
       <c r="N455" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="O455">
         <v>9173701375</v>
@@ -34644,23 +34653,23 @@
         <v>5</v>
       </c>
       <c r="G456" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="H456">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I456"/>
       <c r="J456" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="K456" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="L456" t="s">
         <v>485</v>
       </c>
       <c r="M456" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="N456"/>
       <c r="O456">
@@ -34697,25 +34706,25 @@
         <v>2315</v>
       </c>
       <c r="H457">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I457">
         <v>0</v>
       </c>
       <c r="J457" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="K457" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="L457" t="s">
         <v>2005</v>
       </c>
       <c r="M457" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="N457" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="O457">
         <v>9175932523</v>
@@ -34750,26 +34759,26 @@
         <v>5</v>
       </c>
       <c r="G458" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="H458">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I458"/>
       <c r="J458" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="K458" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="L458" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="M458" t="s">
         <v>226</v>
       </c>
       <c r="N458" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="O458">
         <v>6463391820</v>
@@ -34781,10 +34790,10 @@
         <v>98</v>
       </c>
       <c r="R458" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="S458" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="T458"/>
       <c r="U458"/>
@@ -34813,23 +34822,23 @@
         <v>421</v>
       </c>
       <c r="H459">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I459"/>
       <c r="J459" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="K459" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="L459" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="M459" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="N459" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="O459">
         <v>9178386091</v>
@@ -34841,13 +34850,13 @@
         <v>98</v>
       </c>
       <c r="R459" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="S459" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="T459" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="U459"/>
       <c r="V459"/>
@@ -34873,23 +34882,23 @@
         <v>1156</v>
       </c>
       <c r="H460">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I460"/>
       <c r="J460" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="K460" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="L460" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="M460" t="s">
         <v>592</v>
       </c>
       <c r="N460" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="O460">
         <v>9175704633</v>
@@ -34925,19 +34934,19 @@
       <c r="H461"/>
       <c r="I461"/>
       <c r="J461" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="K461" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="L461" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="M461" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="N461" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="O461">
         <v>2127412552</v>
@@ -34970,28 +34979,28 @@
       </c>
       <c r="F462"/>
       <c r="G462" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="H462">
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="K462" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="L462" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="M462" t="s">
         <v>302</v>
       </c>
       <c r="N462" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="O462">
         <v>9177236152</v>
@@ -35003,10 +35012,10 @@
         <v>98</v>
       </c>
       <c r="R462" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="S462" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="T462"/>
       <c r="U462"/>
@@ -35035,23 +35044,23 @@
         <v>1883</v>
       </c>
       <c r="H463">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I463"/>
       <c r="J463" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="K463" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="L463" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="M463" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="N463" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="O463">
         <v>9176730363</v>
@@ -35085,25 +35094,25 @@
         <v>273</v>
       </c>
       <c r="H464">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I464">
         <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="K464" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="L464" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="M464" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="N464" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="O464">
         <v>2122434346</v>
@@ -35139,23 +35148,23 @@
         <v>1780</v>
       </c>
       <c r="H465">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I465"/>
       <c r="J465" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="K465" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="L465" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="M465" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="N465" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="O465">
         <v>2126338096</v>
@@ -35188,23 +35197,23 @@
       </c>
       <c r="F466"/>
       <c r="G466" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="H466">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I466"/>
       <c r="J466" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="K466" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="L466" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="M466" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="N466"/>
       <c r="O466"/>
@@ -35215,10 +35224,10 @@
         <v>98</v>
       </c>
       <c r="R466" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="S466" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="T466"/>
       <c r="U466"/>
@@ -35245,23 +35254,23 @@
         <v>1467</v>
       </c>
       <c r="H467">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I467"/>
       <c r="J467" t="s">
         <v>294</v>
       </c>
       <c r="K467" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="L467" t="s">
         <v>387</v>
       </c>
       <c r="M467" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="N467" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="O467">
         <v>9175688819</v>
@@ -35294,22 +35303,22 @@
       </c>
       <c r="F468"/>
       <c r="G468" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="H468">
-        <v>-64</v>
+        <v>-66</v>
       </c>
       <c r="I468">
         <v>0</v>
       </c>
       <c r="J468" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="K468" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="L468" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="M468" t="s">
         <v>430</v>
@@ -35325,7 +35334,7 @@
         <v>98</v>
       </c>
       <c r="R468" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="S468" t="s">
         <v>2304</v>
@@ -35355,23 +35364,23 @@
         <v>2508</v>
       </c>
       <c r="H469">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I469"/>
       <c r="J469" t="s">
         <v>1956</v>
       </c>
       <c r="K469" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="L469" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="M469" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="N469" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="O469"/>
       <c r="P469">
@@ -35381,13 +35390,13 @@
         <v>98</v>
       </c>
       <c r="R469" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="S469" t="s">
         <v>2223</v>
       </c>
       <c r="T469" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="U469"/>
       <c r="V469"/>
@@ -35415,25 +35424,25 @@
         <v>874</v>
       </c>
       <c r="H470">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="I470">
         <v>0</v>
       </c>
       <c r="J470" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="K470" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="L470" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="M470" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="N470" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="O470">
         <v>9172822650</v>
@@ -35445,13 +35454,13 @@
         <v>98</v>
       </c>
       <c r="R470" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="S470" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="T470" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="U470"/>
       <c r="V470"/>
@@ -35474,28 +35483,28 @@
       </c>
       <c r="F471"/>
       <c r="G471" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="H471">
-        <v>-217</v>
+        <v>-219</v>
       </c>
       <c r="I471">
         <v>0</v>
       </c>
       <c r="J471" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="K471" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="L471" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="M471" t="s">
         <v>454</v>
       </c>
       <c r="N471" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="O471">
         <v>9176267399</v>
@@ -35507,13 +35516,13 @@
         <v>98</v>
       </c>
       <c r="R471" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="S471" t="s">
         <v>807</v>
       </c>
       <c r="T471" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="U471"/>
       <c r="V471"/>
@@ -35536,26 +35545,26 @@
       </c>
       <c r="F472"/>
       <c r="G472" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="H472">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I472"/>
       <c r="J472" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="K472" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="L472" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="M472" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="N472" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="O472">
         <v>9177698291</v>
@@ -35590,28 +35599,28 @@
         <v>5</v>
       </c>
       <c r="G473" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J473" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="K473" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="L473" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="M473" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="N473" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="O473"/>
       <c r="P473">
@@ -35624,10 +35633,10 @@
         <v>1376</v>
       </c>
       <c r="S473" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="T473" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="U473"/>
       <c r="V473"/>
@@ -35650,26 +35659,26 @@
       </c>
       <c r="F474"/>
       <c r="G474" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="H474">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I474"/>
       <c r="J474" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="K474" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="L474" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="M474" t="s">
         <v>364</v>
       </c>
       <c r="N474" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="O474">
         <v>9178175203</v>
@@ -35705,23 +35714,23 @@
         <v>2263</v>
       </c>
       <c r="H475">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I475"/>
       <c r="J475" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="K475" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="L475" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="M475" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="N475" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="O475">
         <v>6462695738</v>
@@ -35733,10 +35742,10 @@
         <v>98</v>
       </c>
       <c r="R475" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="S475" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="T475"/>
       <c r="U475"/>
@@ -35763,23 +35772,23 @@
         <v>2282</v>
       </c>
       <c r="H476">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I476"/>
       <c r="J476" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="K476" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="L476" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="M476" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="N476" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="O476">
         <v>9172735419</v>
@@ -35812,28 +35821,28 @@
       </c>
       <c r="F477"/>
       <c r="G477" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="H477">
-        <v>-246</v>
+        <v>-248</v>
       </c>
       <c r="I477">
         <v>0</v>
       </c>
       <c r="J477" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="K477" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="L477" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="M477" t="s">
         <v>412</v>
       </c>
       <c r="N477" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="O477"/>
       <c r="P477">
@@ -35866,26 +35875,26 @@
         <v>5</v>
       </c>
       <c r="G478" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="H478">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I478"/>
       <c r="J478" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="K478" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="L478" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="M478" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="N478" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="O478">
         <v>9175968229</v>
@@ -35918,19 +35927,19 @@
       </c>
       <c r="F479"/>
       <c r="G479" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="H479">
-        <v>-102</v>
+        <v>-104</v>
       </c>
       <c r="I479">
         <v>0</v>
       </c>
       <c r="J479" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="K479" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="L479" t="s">
         <v>1633</v>
@@ -35939,7 +35948,7 @@
         <v>648</v>
       </c>
       <c r="N479" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O479">
         <v>9175393696</v>
@@ -35957,7 +35966,7 @@
         <v>271</v>
       </c>
       <c r="T479" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="U479"/>
       <c r="V479"/>
@@ -35983,23 +35992,23 @@
         <v>1487</v>
       </c>
       <c r="H480">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I480"/>
       <c r="J480" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="K480" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="L480" t="s">
         <v>988</v>
       </c>
       <c r="M480" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="N480" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="O480">
         <v>3472917744</v>
@@ -36011,7 +36020,7 @@
         <v>98</v>
       </c>
       <c r="R480" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="S480" t="s">
         <v>2550</v>
@@ -36038,10 +36047,10 @@
       </c>
       <c r="F481"/>
       <c r="G481" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="H481">
-        <v>-140</v>
+        <v>-142</v>
       </c>
       <c r="I481">
         <v>0</v>
@@ -36050,16 +36059,16 @@
         <v>2356</v>
       </c>
       <c r="K481" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="L481" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="M481" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="N481" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="O481">
         <v>9143887035</v>
@@ -36092,26 +36101,26 @@
       </c>
       <c r="F482"/>
       <c r="G482" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="H482">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I482"/>
       <c r="J482" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="K482" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="L482" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="M482" t="s">
         <v>289</v>
       </c>
       <c r="N482" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="O482">
         <v>9178153316</v>
@@ -36144,26 +36153,26 @@
       </c>
       <c r="F483"/>
       <c r="G483" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="H483">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I483"/>
       <c r="J483" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="K483" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="L483" t="s">
         <v>988</v>
       </c>
       <c r="M483" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="N483" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="O483">
         <v>6469815349</v>
@@ -36198,17 +36207,17 @@
         <v>5</v>
       </c>
       <c r="G484" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="H484">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I484"/>
       <c r="J484" t="s">
         <v>294</v>
       </c>
       <c r="K484" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="L484" t="s">
         <v>1825</v>
@@ -36217,7 +36226,7 @@
         <v>755</v>
       </c>
       <c r="N484" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="O484">
         <v>6462563325</v>
@@ -36252,17 +36261,17 @@
         <v>5</v>
       </c>
       <c r="G485" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="H485">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I485"/>
       <c r="J485" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="K485" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="L485" t="s">
         <v>2201</v>
@@ -36271,7 +36280,7 @@
         <v>973</v>
       </c>
       <c r="N485" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="O485">
         <v>9174978667</v>
@@ -36315,7 +36324,7 @@
         <v>349</v>
       </c>
       <c r="H486">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="I486">
         <v>0</v>
@@ -36324,16 +36333,16 @@
         <v>2190</v>
       </c>
       <c r="K486" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="L486" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="M486" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="N486" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="O486">
         <v>6462465562</v>
@@ -36345,10 +36354,10 @@
         <v>98</v>
       </c>
       <c r="R486" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="S486" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="T486"/>
       <c r="U486"/>
@@ -36377,23 +36386,23 @@
         <v>2508</v>
       </c>
       <c r="H487">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I487"/>
       <c r="J487" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="K487" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="L487" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="M487" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="N487" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="O487"/>
       <c r="P487">
@@ -36403,13 +36412,13 @@
         <v>98</v>
       </c>
       <c r="R487" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="S487" t="s">
         <v>390</v>
       </c>
       <c r="T487" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="U487"/>
       <c r="V487"/>
@@ -36435,23 +36444,23 @@
         <v>248</v>
       </c>
       <c r="H488">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I488"/>
       <c r="J488" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="K488" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="L488" t="s">
         <v>150</v>
       </c>
       <c r="M488" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="N488" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="O488">
         <v>6468841701</v>
@@ -36495,23 +36504,23 @@
         <v>236</v>
       </c>
       <c r="H489">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I489"/>
       <c r="J489" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="K489" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="L489" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="M489" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="N489" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="O489">
         <v>6463422709</v>
@@ -36523,13 +36532,13 @@
         <v>98</v>
       </c>
       <c r="R489" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="S489" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="T489" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="U489"/>
       <c r="V489"/>
@@ -36552,28 +36561,28 @@
       </c>
       <c r="F490"/>
       <c r="G490" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="H490">
-        <v>-144</v>
+        <v>-146</v>
       </c>
       <c r="I490">
         <v>0</v>
       </c>
       <c r="J490" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="K490" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="L490" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="M490" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="N490" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="O490">
         <v>5186100424</v>
@@ -36606,28 +36615,28 @@
       </c>
       <c r="F491"/>
       <c r="G491" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="H491">
-        <v>-596</v>
+        <v>-598</v>
       </c>
       <c r="I491">
         <v>0</v>
       </c>
       <c r="J491" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="K491" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="L491" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="M491" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="N491" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="O491">
         <v>9175922470</v>
@@ -36665,23 +36674,23 @@
         <v>588</v>
       </c>
       <c r="H492">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I492"/>
       <c r="J492" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="K492" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="L492" t="s">
         <v>2057</v>
       </c>
       <c r="M492" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="N492" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="O492">
         <v>9177472157</v>
@@ -36719,23 +36728,23 @@
         <v>1798</v>
       </c>
       <c r="H493">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I493"/>
       <c r="J493" t="s">
         <v>1103</v>
       </c>
       <c r="K493" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="L493" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="M493" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="N493" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="O493">
         <v>3476772877</v>
@@ -36747,10 +36756,10 @@
         <v>98</v>
       </c>
       <c r="R493" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="S493" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="T493"/>
       <c r="U493"/>
@@ -36777,23 +36786,23 @@
         <v>691</v>
       </c>
       <c r="H494">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I494"/>
       <c r="J494" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="K494" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="L494" t="s">
         <v>988</v>
       </c>
       <c r="M494" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="N494" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="O494"/>
       <c r="P494">
@@ -36803,7 +36812,7 @@
         <v>98</v>
       </c>
       <c r="R494" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="S494" t="s">
         <v>2013</v>
@@ -36833,23 +36842,23 @@
         <v>2642</v>
       </c>
       <c r="H495">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I495"/>
       <c r="J495" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="K495" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="L495" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="M495" t="s">
         <v>1029</v>
       </c>
       <c r="N495" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="O495"/>
       <c r="P495">
@@ -36880,28 +36889,28 @@
       </c>
       <c r="F496"/>
       <c r="G496" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="H496">
-        <v>-94</v>
+        <v>-96</v>
       </c>
       <c r="I496">
         <v>0</v>
       </c>
       <c r="J496" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="K496" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="L496" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="M496" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="N496" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="O496"/>
       <c r="P496"/>
@@ -36909,7 +36918,7 @@
         <v>98</v>
       </c>
       <c r="R496" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="S496" t="s">
         <v>50</v>
@@ -36942,44 +36951,44 @@
         <v>5</v>
       </c>
       <c r="G497" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="H497">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I497"/>
       <c r="J497" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="K497" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="L497" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="M497" t="s">
         <v>50</v>
       </c>
       <c r="N497" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="O497">
         <v>9177014166</v>
       </c>
       <c r="P497" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="Q497" t="s">
         <v>98</v>
       </c>
       <c r="R497" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="S497" t="s">
         <v>2359</v>
       </c>
       <c r="T497" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="U497"/>
       <c r="V497"/>
@@ -37002,26 +37011,26 @@
       </c>
       <c r="F498"/>
       <c r="G498" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="H498">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I498"/>
       <c r="J498" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="K498" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="L498" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="M498" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="N498" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="O498">
         <v>6464832607</v>
@@ -37054,17 +37063,17 @@
       </c>
       <c r="F499"/>
       <c r="G499" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="H499">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I499"/>
       <c r="J499" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="K499" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="L499" t="s">
         <v>1675</v>
@@ -37113,25 +37122,25 @@
         <v>1072</v>
       </c>
       <c r="H500">
-        <v>-151</v>
+        <v>-153</v>
       </c>
       <c r="I500">
         <v>0</v>
       </c>
       <c r="J500" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="K500" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="L500" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="M500" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="N500" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="O500">
         <v>9175540550</v>
@@ -37166,23 +37175,23 @@
         <v>5</v>
       </c>
       <c r="G501" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="H501">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I501"/>
       <c r="J501" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="K501" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="L501" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="M501" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="N501"/>
       <c r="O501"/>
@@ -37193,10 +37202,10 @@
         <v>98</v>
       </c>
       <c r="R501" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="S501" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="T501"/>
       <c r="U501"/>
@@ -37223,23 +37232,23 @@
         <v>854</v>
       </c>
       <c r="H502">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I502"/>
       <c r="J502" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="K502" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="L502" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="M502" t="s">
         <v>461</v>
       </c>
       <c r="N502" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="O502">
         <v>9176801870</v>
@@ -37251,10 +37260,10 @@
         <v>98</v>
       </c>
       <c r="R502" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="S502" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="T502"/>
       <c r="U502"/>
@@ -37280,26 +37289,26 @@
         <v>5</v>
       </c>
       <c r="G503" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="H503">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I503"/>
       <c r="J503" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="K503" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="L503" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="M503" t="s">
         <v>308</v>
       </c>
       <c r="N503" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="O503">
         <v>9174477674</v>
@@ -37335,14 +37344,14 @@
         <v>248</v>
       </c>
       <c r="H504">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I504"/>
       <c r="J504" t="s">
         <v>1956</v>
       </c>
       <c r="K504" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="L504" t="s">
         <v>150</v>
@@ -37351,7 +37360,7 @@
         <v>1053</v>
       </c>
       <c r="N504" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="O504"/>
       <c r="P504">
@@ -37364,10 +37373,10 @@
         <v>150</v>
       </c>
       <c r="S504" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="T504" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="U504"/>
       <c r="V504"/>
@@ -37390,26 +37399,26 @@
       </c>
       <c r="F505"/>
       <c r="G505" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="H505">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I505"/>
       <c r="J505" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="K505" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="L505" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="M505" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="N505" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="O505">
         <v>9173272765</v>
@@ -37450,10 +37459,10 @@
         <v>1682</v>
       </c>
       <c r="M506" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="N506" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="O506">
         <v>6462215822</v>
@@ -37489,14 +37498,14 @@
         <v>202</v>
       </c>
       <c r="H507">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I507"/>
       <c r="J507" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="K507" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="L507" t="s">
         <v>2559</v>
@@ -37505,7 +37514,7 @@
         <v>184</v>
       </c>
       <c r="N507" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="O507">
         <v>6464315821</v>
@@ -37517,13 +37526,13 @@
         <v>98</v>
       </c>
       <c r="R507" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="S507" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="T507" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="U507"/>
       <c r="V507"/>
@@ -37549,23 +37558,23 @@
         <v>2282</v>
       </c>
       <c r="H508">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I508"/>
       <c r="J508" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="K508" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="L508" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="M508" t="s">
         <v>184</v>
       </c>
       <c r="N508" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="O508">
         <v>9179237281</v>
@@ -37577,13 +37586,13 @@
         <v>98</v>
       </c>
       <c r="R508" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="S508" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="T508" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="U508"/>
       <c r="V508"/>
